--- a/docs/NL-Datasets-Attributes.xlsx
+++ b/docs/NL-Datasets-Attributes.xlsx
@@ -3506,10 +3506,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="EW109" sqref="EW109:EW111"/>
+      <selection pane="bottomLeft" activeCell="Y78" sqref="Y78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3552,7 +3552,9 @@
     <col min="41" max="41" width="25.5703125" style="1" customWidth="1"/>
     <col min="42" max="42" width="25" customWidth="1"/>
     <col min="43" max="43" width="23.5703125" customWidth="1"/>
-    <col min="44" max="51" width="24.140625" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" customWidth="1"/>
+    <col min="45" max="45" width="91.28515625" customWidth="1"/>
+    <col min="46" max="51" width="24.140625" customWidth="1"/>
     <col min="52" max="52" width="24.140625" style="1" customWidth="1"/>
     <col min="53" max="64" width="24.140625" customWidth="1"/>
     <col min="65" max="65" width="24.7109375" customWidth="1"/>
@@ -10088,7 +10090,7 @@
       <c r="AR37" t="s">
         <v>159</v>
       </c>
-      <c r="AS37" t="s">
+      <c r="AS37" s="5" t="s">
         <v>350</v>
       </c>
       <c r="EE37" t="s">
@@ -21411,7 +21413,7 @@
       <c r="AR75" t="s">
         <v>159</v>
       </c>
-      <c r="AS75" t="s">
+      <c r="AS75" s="5" t="s">
         <v>774</v>
       </c>
       <c r="AT75" t="s">
@@ -21906,7 +21908,7 @@
       <c r="AR78" t="s">
         <v>159</v>
       </c>
-      <c r="AS78" t="s">
+      <c r="AS78" s="5" t="s">
         <v>809</v>
       </c>
       <c r="AT78" t="s">
@@ -27124,6 +27126,9 @@
     <hyperlink ref="Y78" r:id="rId71"/>
     <hyperlink ref="Y91" r:id="rId72"/>
     <hyperlink ref="Y90" r:id="rId73"/>
+    <hyperlink ref="AS75" r:id="rId74"/>
+    <hyperlink ref="AS78" r:id="rId75"/>
+    <hyperlink ref="AS37" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/NL-Datasets-Attributes.xlsx
+++ b/docs/NL-Datasets-Attributes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robennet\Documents\GitHub\fgp-metadata-proxy\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Data\SourceData\NL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6865" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7963" uniqueCount="1145">
   <si>
     <t>title</t>
   </si>
@@ -3024,9 +3024,6 @@
     <t>graphic_link</t>
   </si>
   <si>
-    <t>iso_topic_string</t>
-  </si>
-  <si>
     <t>p-t_entity</t>
   </si>
   <si>
@@ -3121,6 +3118,351 @@
   </si>
   <si>
     <t>EPSG</t>
+  </si>
+  <si>
+    <t>landuseatlas@gov.nl.ca</t>
+  </si>
+  <si>
+    <t>Land Use Atlas Inquiry</t>
+  </si>
+  <si>
+    <t>iso_topic_string_0</t>
+  </si>
+  <si>
+    <t>Department of Fisheries and Land Resources</t>
+  </si>
+  <si>
+    <t>land use</t>
+  </si>
+  <si>
+    <t>public land</t>
+  </si>
+  <si>
+    <t>EPSG:3857</t>
+  </si>
+  <si>
+    <t>Control Monuments</t>
+  </si>
+  <si>
+    <t>PUBLIC LANDUSE INQUIRY MAP: Control Monuments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This application provides details on existing land use, land use limitations, Crown titles and applications, Municipal Plan and Protected Road Zoning in Newfoundland and Labrador.  </t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlas/inquiry/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/0</t>
+  </si>
+  <si>
+    <t>control monuments</t>
+  </si>
+  <si>
+    <t>Applications for Crown Title</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/2</t>
+  </si>
+  <si>
+    <t>crown title</t>
+  </si>
+  <si>
+    <t>applications</t>
+  </si>
+  <si>
+    <t>Crown Titles</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/3</t>
+  </si>
+  <si>
+    <t>crown titles</t>
+  </si>
+  <si>
+    <t>Expropriated Land</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/4</t>
+  </si>
+  <si>
+    <t>expropriation</t>
+  </si>
+  <si>
+    <t>expropriated land</t>
+  </si>
+  <si>
+    <t>Orders in Council</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/5</t>
+  </si>
+  <si>
+    <t>orders in council</t>
+  </si>
+  <si>
+    <t>Quieting of Titles</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/6</t>
+  </si>
+  <si>
+    <t>quieting of titles</t>
+  </si>
+  <si>
+    <t>Quit Claims</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/7</t>
+  </si>
+  <si>
+    <t>quit claims</t>
+  </si>
+  <si>
+    <t>Bowater Land Sales</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/8</t>
+  </si>
+  <si>
+    <t>bowater land sales</t>
+  </si>
+  <si>
+    <t>Titles to Check</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/9</t>
+  </si>
+  <si>
+    <t>titles to check</t>
+  </si>
+  <si>
+    <t>Miscellaneous Crown Land Information</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/10</t>
+  </si>
+  <si>
+    <t>crown land</t>
+  </si>
+  <si>
+    <t>Aboriginal Affairs</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/12</t>
+  </si>
+  <si>
+    <t>aboriginal affairs</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/13</t>
+  </si>
+  <si>
+    <t>Tourism</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/14</t>
+  </si>
+  <si>
+    <t>tourism</t>
+  </si>
+  <si>
+    <t>Federal Lands</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/15</t>
+  </si>
+  <si>
+    <t>federal lands</t>
+  </si>
+  <si>
+    <t>Fisheries</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/16</t>
+  </si>
+  <si>
+    <t>fisheries</t>
+  </si>
+  <si>
+    <t>Lands</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/17</t>
+  </si>
+  <si>
+    <t>lands</t>
+  </si>
+  <si>
+    <t>Municipal Affairs</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/18</t>
+  </si>
+  <si>
+    <t>municipal affairs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/19</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/20</t>
+  </si>
+  <si>
+    <t>Mines Energy</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/21</t>
+  </si>
+  <si>
+    <t>mines</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>Forestry Agrifoods</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forestry </t>
+  </si>
+  <si>
+    <t>agrifoods</t>
+  </si>
+  <si>
+    <t>Municipal Plan Restrictions</t>
+  </si>
+  <si>
+    <t>municipal plan</t>
+  </si>
+  <si>
+    <t>restrictions</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/23</t>
+  </si>
+  <si>
+    <t>Protected Road Zones</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/24</t>
+  </si>
+  <si>
+    <t>protected road</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Applications for Crown Title</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Crown Titles</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Expropriated Land</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Orders in Council</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Quieting of Titles</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Quit Claims</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Bowater Land Sales</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Titles to Check</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Miscellaneous Crown Land Information</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Aboriginal Affairs</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Environment</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Tourism</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Federal Lands</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Fisheries</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Lands</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Municipal Affairs</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Other</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Transportation</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Mines Energy</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Forestry Agrifoods</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Municipal Plan Restrictions</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Protected Road Zones</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Primary Roads</t>
+  </si>
+  <si>
+    <t>Primary Roads</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/25</t>
+  </si>
+  <si>
+    <t>primary roads</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Secondary Roads</t>
+  </si>
+  <si>
+    <t>Secondary Roads</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/26</t>
+  </si>
+  <si>
+    <t>secondary roads</t>
+  </si>
+  <si>
+    <t>PUBLIC LAND INQUIRY MAP: Place in Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Place in Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/landuseatlasmaps/rest/services/LandUseDetails/MapServer/27</t>
+  </si>
+  <si>
+    <t>places</t>
   </si>
 </sst>
 </file>
@@ -3130,7 +3472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3178,6 +3520,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3200,7 +3548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3223,6 +3571,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3504,12 +3853,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EW108"/>
+  <dimension ref="A1:EW134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Y78" sqref="Y78"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3650,7 +3999,7 @@
         <v>997</v>
       </c>
       <c r="W1" t="s">
-        <v>998</v>
+        <v>1032</v>
       </c>
       <c r="X1" t="s">
         <v>21</v>
@@ -3665,16 +4014,16 @@
         <v>24</v>
       </c>
       <c r="AB1" t="s">
+        <v>998</v>
+      </c>
+      <c r="AC1" t="s">
         <v>999</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>1000</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>1001</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>1002</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>25</v>
@@ -4034,13 +4383,13 @@
         <v>143</v>
       </c>
       <c r="EU1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="EV1" t="s">
         <v>1026</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>1027</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:153" x14ac:dyDescent="0.25">
@@ -4093,10 +4442,10 @@
         <v>46.5</v>
       </c>
       <c r="V2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="W2" t="s">
         <v>1003</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1004</v>
       </c>
       <c r="Y2" t="s">
         <v>152</v>
@@ -4108,16 +4457,16 @@
         <v>154</v>
       </c>
       <c r="AB2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC2" t="s">
         <v>1005</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>1006</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>1008</v>
       </c>
       <c r="AF2" s="2">
         <v>41621</v>
@@ -4189,10 +4538,10 @@
         <v>168</v>
       </c>
       <c r="EU2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV2" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>1030</v>
       </c>
       <c r="EW2" t="s">
         <v>151</v>
@@ -4260,10 +4609,10 @@
         <v>46.5</v>
       </c>
       <c r="V3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Y3" t="s">
         <v>172</v>
@@ -4275,16 +4624,16 @@
         <v>154</v>
       </c>
       <c r="AB3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC3" t="s">
         <v>1005</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>1006</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>1008</v>
       </c>
       <c r="AF3" s="2">
         <v>42003</v>
@@ -4416,10 +4765,10 @@
         <v>181</v>
       </c>
       <c r="EU3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV3" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>1030</v>
       </c>
       <c r="EW3" t="s">
         <v>151</v>
@@ -4475,7 +4824,7 @@
         <v>46.5</v>
       </c>
       <c r="V4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W4" t="s">
         <v>183</v>
@@ -4490,16 +4839,16 @@
         <v>154</v>
       </c>
       <c r="AB4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC4" t="s">
         <v>1005</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>1006</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>1008</v>
       </c>
       <c r="AF4" s="2">
         <v>41610</v>
@@ -4580,10 +4929,10 @@
         <v>190</v>
       </c>
       <c r="EU4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV4" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>1030</v>
       </c>
       <c r="EW4" t="s">
         <v>151</v>
@@ -4639,10 +4988,10 @@
         <v>46.5</v>
       </c>
       <c r="V5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Y5" t="s">
         <v>192</v>
@@ -4654,16 +5003,16 @@
         <v>154</v>
       </c>
       <c r="AB5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC5" t="s">
         <v>1005</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>1006</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>1008</v>
       </c>
       <c r="AF5" s="2">
         <v>41614</v>
@@ -4738,10 +5087,10 @@
         <v>197</v>
       </c>
       <c r="EU5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV5" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>1030</v>
       </c>
       <c r="EW5" t="s">
         <v>151</v>
@@ -4803,10 +5152,10 @@
         <v>46.5</v>
       </c>
       <c r="V6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Y6" t="s">
         <v>199</v>
@@ -4818,16 +5167,16 @@
         <v>154</v>
       </c>
       <c r="AB6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC6" t="s">
         <v>1005</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>1006</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1008</v>
       </c>
       <c r="AF6" s="2">
         <v>42004</v>
@@ -4929,10 +5278,10 @@
         <v>180</v>
       </c>
       <c r="EU6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV6" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV6" t="s">
-        <v>1030</v>
       </c>
       <c r="EW6" t="s">
         <v>151</v>
@@ -4988,10 +5337,10 @@
         <v>46.5</v>
       </c>
       <c r="V7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Y7" t="s">
         <v>206</v>
@@ -5003,16 +5352,16 @@
         <v>154</v>
       </c>
       <c r="AB7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC7" t="s">
         <v>1005</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>1006</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1008</v>
       </c>
       <c r="AF7" s="2">
         <v>41621</v>
@@ -5087,10 +5436,10 @@
         <v>180</v>
       </c>
       <c r="EU7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV7" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>1030</v>
       </c>
       <c r="EW7" t="s">
         <v>151</v>
@@ -5152,10 +5501,10 @@
         <v>46.5</v>
       </c>
       <c r="V8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Y8" t="s">
         <v>210</v>
@@ -5167,16 +5516,16 @@
         <v>154</v>
       </c>
       <c r="AB8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC8" t="s">
         <v>1005</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>1006</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1008</v>
       </c>
       <c r="AF8" s="2">
         <v>42004</v>
@@ -5275,10 +5624,10 @@
         <v>216</v>
       </c>
       <c r="EU8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV8" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV8" t="s">
-        <v>1030</v>
       </c>
       <c r="EW8" t="s">
         <v>151</v>
@@ -5334,10 +5683,10 @@
         <v>46.5</v>
       </c>
       <c r="V9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Y9" t="s">
         <v>219</v>
@@ -5349,16 +5698,16 @@
         <v>154</v>
       </c>
       <c r="AB9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC9" t="s">
         <v>1005</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>1006</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>1008</v>
       </c>
       <c r="AF9" s="2">
         <v>42167</v>
@@ -5460,10 +5809,10 @@
         <v>226</v>
       </c>
       <c r="EU9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV9" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV9" t="s">
-        <v>1030</v>
       </c>
       <c r="EW9" t="s">
         <v>151</v>
@@ -5519,10 +5868,10 @@
         <v>46.5</v>
       </c>
       <c r="V10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="W10" t="s">
         <v>1003</v>
-      </c>
-      <c r="W10" t="s">
-        <v>1004</v>
       </c>
       <c r="Y10" t="s">
         <v>228</v>
@@ -5534,16 +5883,16 @@
         <v>154</v>
       </c>
       <c r="AB10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC10" t="s">
         <v>1005</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>1006</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>1008</v>
       </c>
       <c r="AF10" s="2">
         <v>41621</v>
@@ -5618,10 +5967,10 @@
         <v>232</v>
       </c>
       <c r="EU10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV10" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV10" t="s">
-        <v>1030</v>
       </c>
       <c r="EW10" t="s">
         <v>151</v>
@@ -5683,10 +6032,10 @@
         <v>46.5</v>
       </c>
       <c r="V11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Y11" t="s">
         <v>234</v>
@@ -5698,16 +6047,16 @@
         <v>154</v>
       </c>
       <c r="AB11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC11" t="s">
         <v>1005</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>1006</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>1008</v>
       </c>
       <c r="AF11" s="2">
         <v>42004</v>
@@ -5809,10 +6158,10 @@
         <v>180</v>
       </c>
       <c r="EU11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV11" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV11" t="s">
-        <v>1030</v>
       </c>
       <c r="EW11" t="s">
         <v>151</v>
@@ -5874,10 +6223,10 @@
         <v>46.5</v>
       </c>
       <c r="V12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W12" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Y12" t="s">
         <v>242</v>
@@ -5889,16 +6238,16 @@
         <v>154</v>
       </c>
       <c r="AB12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC12" t="s">
         <v>1005</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>1006</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>1008</v>
       </c>
       <c r="AF12" s="2">
         <v>42004</v>
@@ -6000,10 +6349,10 @@
         <v>180</v>
       </c>
       <c r="EU12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV12" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV12" t="s">
-        <v>1030</v>
       </c>
       <c r="EW12" t="s">
         <v>151</v>
@@ -6059,10 +6408,10 @@
         <v>46.5</v>
       </c>
       <c r="V13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Y13" t="s">
         <v>252</v>
@@ -6074,16 +6423,16 @@
         <v>154</v>
       </c>
       <c r="AB13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC13" t="s">
         <v>1005</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>1006</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>1008</v>
       </c>
       <c r="AF13" s="2">
         <v>35431</v>
@@ -6158,10 +6507,10 @@
         <v>180</v>
       </c>
       <c r="EU13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV13" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV13" t="s">
-        <v>1030</v>
       </c>
       <c r="EW13" t="s">
         <v>151</v>
@@ -6217,10 +6566,10 @@
         <v>46.5</v>
       </c>
       <c r="V14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Y14" t="s">
         <v>252</v>
@@ -6232,16 +6581,16 @@
         <v>154</v>
       </c>
       <c r="AB14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC14" t="s">
         <v>1005</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>1006</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>1008</v>
       </c>
       <c r="AF14" s="2">
         <v>35431</v>
@@ -6316,10 +6665,10 @@
         <v>180</v>
       </c>
       <c r="EU14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV14" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV14" t="s">
-        <v>1030</v>
       </c>
       <c r="EW14" t="s">
         <v>151</v>
@@ -6378,10 +6727,10 @@
         <v>46.5</v>
       </c>
       <c r="V15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y15" t="s">
         <v>252</v>
@@ -6393,16 +6742,16 @@
         <v>154</v>
       </c>
       <c r="AB15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC15" t="s">
         <v>1005</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>1006</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>1008</v>
       </c>
       <c r="AF15" s="2">
         <v>39814</v>
@@ -6483,10 +6832,10 @@
         <v>268</v>
       </c>
       <c r="EU15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV15" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV15" t="s">
-        <v>1030</v>
       </c>
       <c r="EW15" t="s">
         <v>151</v>
@@ -6545,10 +6894,10 @@
         <v>46.5</v>
       </c>
       <c r="V16" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W16" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y16" t="s">
         <v>252</v>
@@ -6560,16 +6909,16 @@
         <v>154</v>
       </c>
       <c r="AB16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC16" t="s">
         <v>1005</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>1006</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>1008</v>
       </c>
       <c r="AF16" s="2">
         <v>39814</v>
@@ -6650,10 +6999,10 @@
         <v>268</v>
       </c>
       <c r="EU16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV16" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV16" t="s">
-        <v>1030</v>
       </c>
       <c r="EW16" t="s">
         <v>151</v>
@@ -6712,10 +7061,10 @@
         <v>46.5</v>
       </c>
       <c r="V17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y17" t="s">
         <v>252</v>
@@ -6727,16 +7076,16 @@
         <v>154</v>
       </c>
       <c r="AB17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC17" t="s">
         <v>1005</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>1006</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1008</v>
       </c>
       <c r="AF17" s="2">
         <v>39814</v>
@@ -6817,10 +7166,10 @@
         <v>268</v>
       </c>
       <c r="EU17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV17" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV17" t="s">
-        <v>1030</v>
       </c>
       <c r="EW17" t="s">
         <v>151</v>
@@ -6879,10 +7228,10 @@
         <v>46.5</v>
       </c>
       <c r="V18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y18" t="s">
         <v>252</v>
@@ -6894,16 +7243,16 @@
         <v>154</v>
       </c>
       <c r="AB18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC18" t="s">
         <v>1005</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>1006</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1008</v>
       </c>
       <c r="AF18" s="2">
         <v>39814</v>
@@ -6984,10 +7333,10 @@
         <v>268</v>
       </c>
       <c r="EU18" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV18" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV18" t="s">
-        <v>1030</v>
       </c>
       <c r="EW18" t="s">
         <v>151</v>
@@ -7046,10 +7395,10 @@
         <v>46.5</v>
       </c>
       <c r="V19" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y19" t="s">
         <v>252</v>
@@ -7061,16 +7410,16 @@
         <v>154</v>
       </c>
       <c r="AB19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC19" t="s">
         <v>1005</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>1006</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>1008</v>
       </c>
       <c r="AF19" s="2">
         <v>40179</v>
@@ -7151,10 +7500,10 @@
         <v>268</v>
       </c>
       <c r="EU19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV19" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV19" t="s">
-        <v>1030</v>
       </c>
       <c r="EW19" t="s">
         <v>151</v>
@@ -7213,10 +7562,10 @@
         <v>46.5</v>
       </c>
       <c r="V20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y20" t="s">
         <v>252</v>
@@ -7228,16 +7577,16 @@
         <v>154</v>
       </c>
       <c r="AB20" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC20" t="s">
         <v>1005</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>1006</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>1008</v>
       </c>
       <c r="AF20" s="2">
         <v>40179</v>
@@ -7318,10 +7667,10 @@
         <v>268</v>
       </c>
       <c r="EU20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV20" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV20" t="s">
-        <v>1030</v>
       </c>
       <c r="EW20" t="s">
         <v>151</v>
@@ -7380,10 +7729,10 @@
         <v>46.5</v>
       </c>
       <c r="V21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y21" t="s">
         <v>252</v>
@@ -7395,16 +7744,16 @@
         <v>154</v>
       </c>
       <c r="AB21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC21" t="s">
         <v>1005</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>1006</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>1008</v>
       </c>
       <c r="AF21" s="2">
         <v>40544</v>
@@ -7485,10 +7834,10 @@
         <v>268</v>
       </c>
       <c r="EU21" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV21" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV21" t="s">
-        <v>1030</v>
       </c>
       <c r="EW21" t="s">
         <v>151</v>
@@ -7547,10 +7896,10 @@
         <v>46.5</v>
       </c>
       <c r="V22" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y22" t="s">
         <v>252</v>
@@ -7562,16 +7911,16 @@
         <v>154</v>
       </c>
       <c r="AB22" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC22" t="s">
         <v>1005</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>1006</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1008</v>
       </c>
       <c r="AF22" s="2">
         <v>40544</v>
@@ -7652,10 +8001,10 @@
         <v>268</v>
       </c>
       <c r="EU22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV22" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV22" t="s">
-        <v>1030</v>
       </c>
       <c r="EW22" t="s">
         <v>151</v>
@@ -7714,10 +8063,10 @@
         <v>46.5</v>
       </c>
       <c r="V23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y23" t="s">
         <v>252</v>
@@ -7729,16 +8078,16 @@
         <v>154</v>
       </c>
       <c r="AB23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC23" t="s">
         <v>1005</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>1006</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>1008</v>
       </c>
       <c r="AF23" s="2">
         <v>40909</v>
@@ -7819,10 +8168,10 @@
         <v>268</v>
       </c>
       <c r="EU23" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV23" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV23" t="s">
-        <v>1030</v>
       </c>
       <c r="EW23" t="s">
         <v>151</v>
@@ -7881,10 +8230,10 @@
         <v>46.5</v>
       </c>
       <c r="V24" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y24" t="s">
         <v>252</v>
@@ -7896,16 +8245,16 @@
         <v>154</v>
       </c>
       <c r="AB24" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC24" t="s">
         <v>1005</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>1006</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1008</v>
       </c>
       <c r="AF24" s="2">
         <v>40909</v>
@@ -7986,10 +8335,10 @@
         <v>268</v>
       </c>
       <c r="EU24" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV24" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV24" t="s">
-        <v>1030</v>
       </c>
       <c r="EW24" t="s">
         <v>151</v>
@@ -8048,10 +8397,10 @@
         <v>46.5</v>
       </c>
       <c r="V25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W25" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y25" t="s">
         <v>252</v>
@@ -8063,16 +8412,16 @@
         <v>154</v>
       </c>
       <c r="AB25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC25" t="s">
         <v>1005</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>1006</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1008</v>
       </c>
       <c r="AF25" s="2">
         <v>41275</v>
@@ -8153,10 +8502,10 @@
         <v>268</v>
       </c>
       <c r="EU25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV25" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV25" t="s">
-        <v>1030</v>
       </c>
       <c r="EW25" t="s">
         <v>151</v>
@@ -8215,10 +8564,10 @@
         <v>46.5</v>
       </c>
       <c r="V26" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y26" t="s">
         <v>252</v>
@@ -8230,16 +8579,16 @@
         <v>154</v>
       </c>
       <c r="AB26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC26" t="s">
         <v>1005</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>1006</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>1008</v>
       </c>
       <c r="AF26" s="2">
         <v>41275</v>
@@ -8320,10 +8669,10 @@
         <v>268</v>
       </c>
       <c r="EU26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV26" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV26" t="s">
-        <v>1030</v>
       </c>
       <c r="EW26" t="s">
         <v>151</v>
@@ -8382,10 +8731,10 @@
         <v>46.5</v>
       </c>
       <c r="V27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W27" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y27" t="s">
         <v>252</v>
@@ -8397,16 +8746,16 @@
         <v>154</v>
       </c>
       <c r="AB27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC27" t="s">
         <v>1005</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>1006</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>1008</v>
       </c>
       <c r="AF27" s="2">
         <v>41640</v>
@@ -8487,10 +8836,10 @@
         <v>268</v>
       </c>
       <c r="EU27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV27" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV27" t="s">
-        <v>1030</v>
       </c>
       <c r="EW27" t="s">
         <v>151</v>
@@ -8549,10 +8898,10 @@
         <v>46.5</v>
       </c>
       <c r="V28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W28" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y28" t="s">
         <v>252</v>
@@ -8564,16 +8913,16 @@
         <v>154</v>
       </c>
       <c r="AB28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC28" t="s">
         <v>1005</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>1006</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>1008</v>
       </c>
       <c r="AF28" s="2">
         <v>41640</v>
@@ -8654,10 +9003,10 @@
         <v>268</v>
       </c>
       <c r="EU28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV28" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV28" t="s">
-        <v>1030</v>
       </c>
       <c r="EW28" t="s">
         <v>151</v>
@@ -8716,10 +9065,10 @@
         <v>46.5</v>
       </c>
       <c r="V29" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y29" t="s">
         <v>252</v>
@@ -8731,16 +9080,16 @@
         <v>154</v>
       </c>
       <c r="AB29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC29" t="s">
         <v>1005</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>1006</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>1008</v>
       </c>
       <c r="AF29" s="2">
         <v>42005</v>
@@ -8821,10 +9170,10 @@
         <v>268</v>
       </c>
       <c r="EU29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV29" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV29" t="s">
-        <v>1030</v>
       </c>
       <c r="EW29" t="s">
         <v>151</v>
@@ -8883,10 +9232,10 @@
         <v>46.5</v>
       </c>
       <c r="V30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y30" t="s">
         <v>252</v>
@@ -8898,16 +9247,16 @@
         <v>154</v>
       </c>
       <c r="AB30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC30" t="s">
         <v>1005</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>1006</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>1008</v>
       </c>
       <c r="AF30" s="2">
         <v>42005</v>
@@ -8988,10 +9337,10 @@
         <v>268</v>
       </c>
       <c r="EU30" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV30" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV30" t="s">
-        <v>1030</v>
       </c>
       <c r="EW30" t="s">
         <v>151</v>
@@ -9050,10 +9399,10 @@
         <v>46.5</v>
       </c>
       <c r="V31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W31" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y31" t="s">
         <v>252</v>
@@ -9065,16 +9414,16 @@
         <v>154</v>
       </c>
       <c r="AB31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC31" t="s">
         <v>1005</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>1006</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>1008</v>
       </c>
       <c r="AF31" s="2">
         <v>42005</v>
@@ -9155,10 +9504,10 @@
         <v>268</v>
       </c>
       <c r="EU31" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV31" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV31" t="s">
-        <v>1030</v>
       </c>
       <c r="EW31" t="s">
         <v>151</v>
@@ -9214,10 +9563,10 @@
         <v>46.5</v>
       </c>
       <c r="V32" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Y32" t="s">
         <v>252</v>
@@ -9229,16 +9578,16 @@
         <v>154</v>
       </c>
       <c r="AB32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC32" t="s">
         <v>1005</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>1006</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>1008</v>
       </c>
       <c r="AF32" s="2">
         <v>35431</v>
@@ -9313,10 +9662,10 @@
         <v>180</v>
       </c>
       <c r="EU32" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV32" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>1030</v>
       </c>
       <c r="EW32" t="s">
         <v>151</v>
@@ -9372,7 +9721,7 @@
         <v>46.5</v>
       </c>
       <c r="V33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W33" t="s">
         <v>329</v>
@@ -9387,16 +9736,16 @@
         <v>154</v>
       </c>
       <c r="AB33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC33" t="s">
         <v>1005</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>1006</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1008</v>
       </c>
       <c r="AF33" s="2">
         <v>35431</v>
@@ -9474,10 +9823,10 @@
         <v>333</v>
       </c>
       <c r="EU33" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV33" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV33" t="s">
-        <v>1030</v>
       </c>
       <c r="EW33" t="s">
         <v>151</v>
@@ -9533,10 +9882,10 @@
         <v>46.5</v>
       </c>
       <c r="V34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Y34" t="s">
         <v>252</v>
@@ -9548,16 +9897,16 @@
         <v>154</v>
       </c>
       <c r="AB34" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC34" t="s">
         <v>1005</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>1006</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>1008</v>
       </c>
       <c r="AF34" s="2">
         <v>35431</v>
@@ -9638,10 +9987,10 @@
         <v>180</v>
       </c>
       <c r="EU34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV34" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV34" t="s">
-        <v>1030</v>
       </c>
       <c r="EW34" t="s">
         <v>151</v>
@@ -9697,10 +10046,10 @@
         <v>46.5</v>
       </c>
       <c r="V35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y35" t="s">
         <v>252</v>
@@ -9712,16 +10061,16 @@
         <v>154</v>
       </c>
       <c r="AB35" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC35" t="s">
         <v>1005</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>1006</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>1008</v>
       </c>
       <c r="AF35" s="2">
         <v>35431</v>
@@ -9802,10 +10151,10 @@
         <v>268</v>
       </c>
       <c r="EU35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV35" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV35" t="s">
-        <v>1030</v>
       </c>
       <c r="EW35" t="s">
         <v>151</v>
@@ -9861,7 +10210,7 @@
         <v>46.5</v>
       </c>
       <c r="V36" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W36" t="s">
         <v>183</v>
@@ -9876,16 +10225,16 @@
         <v>154</v>
       </c>
       <c r="AB36" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC36" t="s">
         <v>1005</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>1006</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>1008</v>
       </c>
       <c r="AF36" s="2">
         <v>35431</v>
@@ -9966,10 +10315,10 @@
         <v>180</v>
       </c>
       <c r="EU36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV36" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV36" t="s">
-        <v>1030</v>
       </c>
       <c r="EW36" t="s">
         <v>151</v>
@@ -10025,10 +10374,10 @@
         <v>46.5</v>
       </c>
       <c r="V37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W37" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Y37" t="s">
         <v>252</v>
@@ -10040,16 +10389,16 @@
         <v>154</v>
       </c>
       <c r="AB37" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC37" t="s">
         <v>1005</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>1006</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>1008</v>
       </c>
       <c r="AF37" s="2">
         <v>35431</v>
@@ -10127,10 +10476,10 @@
         <v>180</v>
       </c>
       <c r="EU37" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV37" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV37" t="s">
-        <v>1030</v>
       </c>
       <c r="EW37" t="s">
         <v>151</v>
@@ -10201,10 +10550,10 @@
         <v>48.9</v>
       </c>
       <c r="V38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y38" t="s">
         <v>359</v>
@@ -10216,16 +10565,16 @@
         <v>154</v>
       </c>
       <c r="AB38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC38" t="s">
         <v>1005</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>1006</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>1008</v>
       </c>
       <c r="AF38" s="2">
         <v>31245</v>
@@ -10492,10 +10841,10 @@
         <v>338</v>
       </c>
       <c r="EU38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV38" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV38" t="s">
-        <v>1030</v>
       </c>
       <c r="EW38" t="s">
         <v>151</v>
@@ -10560,10 +10909,10 @@
         <v>48.9</v>
       </c>
       <c r="V39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W39" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y39" t="s">
         <v>359</v>
@@ -10575,16 +10924,16 @@
         <v>154</v>
       </c>
       <c r="AB39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC39" t="s">
         <v>1005</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>1006</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>1008</v>
       </c>
       <c r="AF39" s="2">
         <v>33203</v>
@@ -10731,10 +11080,10 @@
         <v>338</v>
       </c>
       <c r="EU39" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV39" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV39" t="s">
-        <v>1030</v>
       </c>
       <c r="EW39" t="s">
         <v>151</v>
@@ -10796,10 +11145,10 @@
         <v>47.5</v>
       </c>
       <c r="V40" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W40" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y40" t="s">
         <v>359</v>
@@ -10811,16 +11160,16 @@
         <v>154</v>
       </c>
       <c r="AB40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC40" t="s">
         <v>1005</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>1006</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>1008</v>
       </c>
       <c r="AF40" s="2">
         <v>35462</v>
@@ -10967,10 +11316,10 @@
         <v>338</v>
       </c>
       <c r="EU40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV40" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV40" t="s">
-        <v>1030</v>
       </c>
       <c r="EW40" t="s">
         <v>151</v>
@@ -11035,10 +11384,10 @@
         <v>47.8</v>
       </c>
       <c r="V41" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y41" t="s">
         <v>359</v>
@@ -11050,16 +11399,16 @@
         <v>154</v>
       </c>
       <c r="AB41" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC41" t="s">
         <v>1005</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>1006</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>1008</v>
       </c>
       <c r="AF41" s="2">
         <v>32905</v>
@@ -11206,10 +11555,10 @@
         <v>338</v>
       </c>
       <c r="EU41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV41" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV41" t="s">
-        <v>1030</v>
       </c>
       <c r="EW41" t="s">
         <v>151</v>
@@ -11274,10 +11623,10 @@
         <v>47.3</v>
       </c>
       <c r="V42" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W42" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y42" t="s">
         <v>359</v>
@@ -11289,16 +11638,16 @@
         <v>154</v>
       </c>
       <c r="AB42" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC42" t="s">
         <v>1005</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>1006</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>1008</v>
       </c>
       <c r="AF42" s="2">
         <v>35125</v>
@@ -11445,10 +11794,10 @@
         <v>338</v>
       </c>
       <c r="EU42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV42" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV42" t="s">
-        <v>1030</v>
       </c>
       <c r="EW42" t="s">
         <v>151</v>
@@ -11519,10 +11868,10 @@
         <v>47.3</v>
       </c>
       <c r="V43" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W43" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y43" t="s">
         <v>359</v>
@@ -11534,16 +11883,16 @@
         <v>154</v>
       </c>
       <c r="AB43" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC43" t="s">
         <v>1005</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>1006</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>1008</v>
       </c>
       <c r="AF43" s="2">
         <v>35125</v>
@@ -11720,10 +12069,10 @@
         <v>338</v>
       </c>
       <c r="EU43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV43" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV43" t="s">
-        <v>1030</v>
       </c>
       <c r="EW43" t="s">
         <v>151</v>
@@ -11794,10 +12143,10 @@
         <v>47.3</v>
       </c>
       <c r="V44" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W44" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y44" t="s">
         <v>359</v>
@@ -11809,16 +12158,16 @@
         <v>154</v>
       </c>
       <c r="AB44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC44" t="s">
         <v>1005</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>1006</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>1008</v>
       </c>
       <c r="AF44" s="2">
         <v>35125</v>
@@ -11995,10 +12344,10 @@
         <v>338</v>
       </c>
       <c r="EU44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV44" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV44" t="s">
-        <v>1030</v>
       </c>
       <c r="EW44" t="s">
         <v>151</v>
@@ -12069,10 +12418,10 @@
         <v>47.3</v>
       </c>
       <c r="V45" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y45" t="s">
         <v>359</v>
@@ -12084,16 +12433,16 @@
         <v>154</v>
       </c>
       <c r="AB45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC45" t="s">
         <v>1005</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AD45" t="s">
         <v>1006</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>1008</v>
       </c>
       <c r="AF45" s="2">
         <v>35125</v>
@@ -12270,10 +12619,10 @@
         <v>338</v>
       </c>
       <c r="EU45" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV45" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV45" t="s">
-        <v>1030</v>
       </c>
       <c r="EW45" t="s">
         <v>151</v>
@@ -12344,10 +12693,10 @@
         <v>47.3</v>
       </c>
       <c r="V46" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W46" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y46" t="s">
         <v>359</v>
@@ -12359,16 +12708,16 @@
         <v>154</v>
       </c>
       <c r="AB46" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC46" t="s">
         <v>1005</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>1006</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>1008</v>
       </c>
       <c r="AF46" s="2">
         <v>35125</v>
@@ -12545,10 +12894,10 @@
         <v>338</v>
       </c>
       <c r="EU46" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV46" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV46" t="s">
-        <v>1030</v>
       </c>
       <c r="EW46" t="s">
         <v>151</v>
@@ -12619,10 +12968,10 @@
         <v>47.3</v>
       </c>
       <c r="V47" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W47" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y47" t="s">
         <v>359</v>
@@ -12634,16 +12983,16 @@
         <v>154</v>
       </c>
       <c r="AB47" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC47" t="s">
         <v>1005</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AD47" t="s">
         <v>1006</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>1008</v>
       </c>
       <c r="AF47" s="2">
         <v>35125</v>
@@ -12820,10 +13169,10 @@
         <v>338</v>
       </c>
       <c r="EU47" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV47" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV47" t="s">
-        <v>1030</v>
       </c>
       <c r="EW47" t="s">
         <v>151</v>
@@ -12894,10 +13243,10 @@
         <v>47.3</v>
       </c>
       <c r="V48" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y48" t="s">
         <v>359</v>
@@ -12909,16 +13258,16 @@
         <v>154</v>
       </c>
       <c r="AB48" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC48" t="s">
         <v>1005</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AD48" t="s">
         <v>1006</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AE48" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>1008</v>
       </c>
       <c r="AF48" s="2">
         <v>35125</v>
@@ -13095,10 +13444,10 @@
         <v>338</v>
       </c>
       <c r="EU48" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV48" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV48" t="s">
-        <v>1030</v>
       </c>
       <c r="EW48" t="s">
         <v>151</v>
@@ -13169,10 +13518,10 @@
         <v>49.2</v>
       </c>
       <c r="V49" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W49" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y49" t="s">
         <v>359</v>
@@ -13184,16 +13533,16 @@
         <v>154</v>
       </c>
       <c r="AB49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC49" t="s">
         <v>1005</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AD49" t="s">
         <v>1006</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>1008</v>
       </c>
       <c r="AF49" s="2">
         <v>36145</v>
@@ -13370,10 +13719,10 @@
         <v>338</v>
       </c>
       <c r="EU49" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV49" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV49" t="s">
-        <v>1030</v>
       </c>
       <c r="EW49" t="s">
         <v>151</v>
@@ -13444,10 +13793,10 @@
         <v>49</v>
       </c>
       <c r="V50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W50" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y50" t="s">
         <v>359</v>
@@ -13459,16 +13808,16 @@
         <v>154</v>
       </c>
       <c r="AB50" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC50" t="s">
         <v>1005</v>
       </c>
-      <c r="AC50" t="s">
+      <c r="AD50" t="s">
         <v>1006</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>1008</v>
       </c>
       <c r="AF50" s="2">
         <v>41332</v>
@@ -13705,10 +14054,10 @@
         <v>338</v>
       </c>
       <c r="EU50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV50" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV50" t="s">
-        <v>1030</v>
       </c>
       <c r="EW50" t="s">
         <v>151</v>
@@ -13773,10 +14122,10 @@
         <v>49.2</v>
       </c>
       <c r="V51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W51" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y51" t="s">
         <v>359</v>
@@ -13788,16 +14137,16 @@
         <v>154</v>
       </c>
       <c r="AB51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC51" t="s">
         <v>1005</v>
       </c>
-      <c r="AC51" t="s">
+      <c r="AD51" t="s">
         <v>1006</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>1008</v>
       </c>
       <c r="AF51" s="2">
         <v>32002</v>
@@ -13944,10 +14293,10 @@
         <v>338</v>
       </c>
       <c r="EU51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV51" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV51" t="s">
-        <v>1030</v>
       </c>
       <c r="EW51" t="s">
         <v>151</v>
@@ -14012,10 +14361,10 @@
         <v>49</v>
       </c>
       <c r="V52" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W52" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y52" t="s">
         <v>359</v>
@@ -14027,16 +14376,16 @@
         <v>154</v>
       </c>
       <c r="AB52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC52" t="s">
         <v>1005</v>
       </c>
-      <c r="AC52" t="s">
+      <c r="AD52" t="s">
         <v>1006</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AE52" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>1008</v>
       </c>
       <c r="AF52" s="2">
         <v>32842</v>
@@ -14183,10 +14532,10 @@
         <v>338</v>
       </c>
       <c r="EU52" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV52" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV52" t="s">
-        <v>1030</v>
       </c>
       <c r="EW52" t="s">
         <v>151</v>
@@ -14251,10 +14600,10 @@
         <v>48.73</v>
       </c>
       <c r="V53" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W53" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y53" t="s">
         <v>359</v>
@@ -14266,16 +14615,16 @@
         <v>154</v>
       </c>
       <c r="AB53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC53" t="s">
         <v>1005</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AD53" t="s">
         <v>1006</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>1008</v>
       </c>
       <c r="AF53" s="2">
         <v>32842</v>
@@ -14422,10 +14771,10 @@
         <v>338</v>
       </c>
       <c r="EU53" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV53" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV53" t="s">
-        <v>1030</v>
       </c>
       <c r="EW53" t="s">
         <v>151</v>
@@ -14496,10 +14845,10 @@
         <v>47.5</v>
       </c>
       <c r="V54" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W54" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y54" t="s">
         <v>359</v>
@@ -14511,16 +14860,16 @@
         <v>154</v>
       </c>
       <c r="AB54" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC54" t="s">
         <v>1005</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>1006</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>1008</v>
       </c>
       <c r="AF54" s="2">
         <v>35153</v>
@@ -14817,10 +15166,10 @@
         <v>338</v>
       </c>
       <c r="EU54" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV54" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV54" t="s">
-        <v>1030</v>
       </c>
       <c r="EW54" t="s">
         <v>151</v>
@@ -14891,10 +15240,10 @@
         <v>47.5</v>
       </c>
       <c r="V55" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W55" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y55" t="s">
         <v>359</v>
@@ -14906,16 +15255,16 @@
         <v>154</v>
       </c>
       <c r="AB55" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC55" t="s">
         <v>1005</v>
       </c>
-      <c r="AC55" t="s">
+      <c r="AD55" t="s">
         <v>1006</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>1008</v>
       </c>
       <c r="AF55" s="2">
         <v>41358</v>
@@ -15152,10 +15501,10 @@
         <v>338</v>
       </c>
       <c r="EU55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV55" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV55" t="s">
-        <v>1030</v>
       </c>
       <c r="EW55" t="s">
         <v>151</v>
@@ -15226,10 +15575,10 @@
         <v>47.5</v>
       </c>
       <c r="V56" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W56" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y56" t="s">
         <v>359</v>
@@ -15241,16 +15590,16 @@
         <v>154</v>
       </c>
       <c r="AB56" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC56" t="s">
         <v>1005</v>
       </c>
-      <c r="AC56" t="s">
+      <c r="AD56" t="s">
         <v>1006</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AE56" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>1008</v>
       </c>
       <c r="AF56" s="2">
         <v>41358</v>
@@ -15487,10 +15836,10 @@
         <v>338</v>
       </c>
       <c r="EU56" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV56" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV56" t="s">
-        <v>1030</v>
       </c>
       <c r="EW56" t="s">
         <v>151</v>
@@ -15561,10 +15910,10 @@
         <v>47.7</v>
       </c>
       <c r="V57" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y57" t="s">
         <v>359</v>
@@ -15576,16 +15925,16 @@
         <v>154</v>
       </c>
       <c r="AB57" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC57" t="s">
         <v>1005</v>
       </c>
-      <c r="AC57" t="s">
+      <c r="AD57" t="s">
         <v>1006</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>1008</v>
       </c>
       <c r="AF57" s="2">
         <v>41124</v>
@@ -15852,10 +16201,10 @@
         <v>338</v>
       </c>
       <c r="EU57" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV57" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV57" t="s">
-        <v>1030</v>
       </c>
       <c r="EW57" t="s">
         <v>151</v>
@@ -15920,10 +16269,10 @@
         <v>47.25</v>
       </c>
       <c r="V58" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W58" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y58" t="s">
         <v>359</v>
@@ -15935,16 +16284,16 @@
         <v>154</v>
       </c>
       <c r="AB58" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC58" t="s">
         <v>1005</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AD58" t="s">
         <v>1006</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>1008</v>
       </c>
       <c r="AF58" s="2">
         <v>31155</v>
@@ -16091,10 +16440,10 @@
         <v>338</v>
       </c>
       <c r="EU58" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV58" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV58" t="s">
-        <v>1030</v>
       </c>
       <c r="EW58" t="s">
         <v>151</v>
@@ -16165,10 +16514,10 @@
         <v>50.06</v>
       </c>
       <c r="V59" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y59" t="s">
         <v>359</v>
@@ -16180,16 +16529,16 @@
         <v>154</v>
       </c>
       <c r="AB59" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC59" t="s">
         <v>1005</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AD59" t="s">
         <v>1006</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AE59" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>1008</v>
       </c>
       <c r="AF59" s="2">
         <v>32493</v>
@@ -16366,10 +16715,10 @@
         <v>338</v>
       </c>
       <c r="EU59" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV59" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV59" t="s">
-        <v>1030</v>
       </c>
       <c r="EW59" t="s">
         <v>151</v>
@@ -16440,10 +16789,10 @@
         <v>47.65</v>
       </c>
       <c r="V60" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W60" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y60" t="s">
         <v>359</v>
@@ -16455,16 +16804,16 @@
         <v>154</v>
       </c>
       <c r="AB60" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC60" t="s">
         <v>1005</v>
       </c>
-      <c r="AC60" t="s">
+      <c r="AD60" t="s">
         <v>1006</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AE60" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>1008</v>
       </c>
       <c r="AF60" s="2">
         <v>35152</v>
@@ -16761,10 +17110,10 @@
         <v>338</v>
       </c>
       <c r="EU60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV60" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV60" t="s">
-        <v>1030</v>
       </c>
       <c r="EW60" t="s">
         <v>151</v>
@@ -16833,10 +17182,10 @@
         <v>47.7</v>
       </c>
       <c r="V61" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y61" t="s">
         <v>359</v>
@@ -16848,16 +17197,16 @@
         <v>154</v>
       </c>
       <c r="AB61" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC61" t="s">
         <v>1005</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AD61" t="s">
         <v>1006</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>1008</v>
       </c>
       <c r="AF61" s="2">
         <v>42149</v>
@@ -17124,10 +17473,10 @@
         <v>338</v>
       </c>
       <c r="EU61" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV61" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV61" t="s">
-        <v>1030</v>
       </c>
       <c r="EW61" t="s">
         <v>151</v>
@@ -17198,10 +17547,10 @@
         <v>47.35</v>
       </c>
       <c r="V62" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W62" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y62" t="s">
         <v>359</v>
@@ -17213,16 +17562,16 @@
         <v>154</v>
       </c>
       <c r="AB62" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC62" t="s">
         <v>1005</v>
       </c>
-      <c r="AC62" t="s">
+      <c r="AD62" t="s">
         <v>1006</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>1008</v>
       </c>
       <c r="AF62" s="2">
         <v>31576</v>
@@ -17519,10 +17868,10 @@
         <v>338</v>
       </c>
       <c r="EU62" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV62" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV62" t="s">
-        <v>1030</v>
       </c>
       <c r="EW62" t="s">
         <v>151</v>
@@ -17593,10 +17942,10 @@
         <v>47.61</v>
       </c>
       <c r="V63" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W63" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y63" t="s">
         <v>359</v>
@@ -17608,16 +17957,16 @@
         <v>154</v>
       </c>
       <c r="AB63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC63" t="s">
         <v>1005</v>
       </c>
-      <c r="AC63" t="s">
+      <c r="AD63" t="s">
         <v>1006</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AE63" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>1008</v>
       </c>
       <c r="AF63" s="2">
         <v>40954</v>
@@ -17884,10 +18233,10 @@
         <v>338</v>
       </c>
       <c r="EU63" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV63" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV63" t="s">
-        <v>1030</v>
       </c>
       <c r="EW63" t="s">
         <v>151</v>
@@ -17952,10 +18301,10 @@
         <v>49</v>
       </c>
       <c r="V64" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W64" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y64" t="s">
         <v>359</v>
@@ -17967,16 +18316,16 @@
         <v>154</v>
       </c>
       <c r="AB64" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC64" t="s">
         <v>1005</v>
       </c>
-      <c r="AC64" t="s">
+      <c r="AD64" t="s">
         <v>1006</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>1008</v>
       </c>
       <c r="AF64" s="2">
         <v>31013</v>
@@ -18123,10 +18472,10 @@
         <v>338</v>
       </c>
       <c r="EU64" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV64" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV64" t="s">
-        <v>1030</v>
       </c>
       <c r="EW64" t="s">
         <v>151</v>
@@ -18197,10 +18546,10 @@
         <v>48.6</v>
       </c>
       <c r="V65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W65" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y65" t="s">
         <v>359</v>
@@ -18212,16 +18561,16 @@
         <v>154</v>
       </c>
       <c r="AB65" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC65" t="s">
         <v>1005</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AD65" t="s">
         <v>1006</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AE65" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>1008</v>
       </c>
       <c r="AF65" s="2">
         <v>35209</v>
@@ -18518,10 +18867,10 @@
         <v>338</v>
       </c>
       <c r="EU65" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV65" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV65" t="s">
-        <v>1030</v>
       </c>
       <c r="EW65" t="s">
         <v>151</v>
@@ -18592,10 +18941,10 @@
         <v>48.6</v>
       </c>
       <c r="V66" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W66" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y66" t="s">
         <v>359</v>
@@ -18607,16 +18956,16 @@
         <v>154</v>
       </c>
       <c r="AB66" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC66" t="s">
         <v>1005</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AD66" t="s">
         <v>1006</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>1008</v>
       </c>
       <c r="AF66" s="2">
         <v>40004</v>
@@ -18855,10 +19204,10 @@
         <v>338</v>
       </c>
       <c r="EU66" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV66" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV66" t="s">
-        <v>1030</v>
       </c>
       <c r="EW66" t="s">
         <v>151</v>
@@ -18923,10 +19272,10 @@
         <v>48.58</v>
       </c>
       <c r="V67" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W67" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y67" t="s">
         <v>359</v>
@@ -18938,16 +19287,16 @@
         <v>154</v>
       </c>
       <c r="AB67" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC67" t="s">
         <v>1005</v>
       </c>
-      <c r="AC67" t="s">
+      <c r="AD67" t="s">
         <v>1006</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AE67" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>1008</v>
       </c>
       <c r="AF67" s="2">
         <v>32282</v>
@@ -19094,10 +19443,10 @@
         <v>338</v>
       </c>
       <c r="EU67" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV67" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV67" t="s">
-        <v>1030</v>
       </c>
       <c r="EW67" t="s">
         <v>151</v>
@@ -19166,10 +19515,10 @@
         <v>48.58</v>
       </c>
       <c r="V68" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W68" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y68" t="s">
         <v>359</v>
@@ -19181,16 +19530,16 @@
         <v>154</v>
       </c>
       <c r="AB68" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC68" t="s">
         <v>1005</v>
       </c>
-      <c r="AC68" t="s">
+      <c r="AD68" t="s">
         <v>1006</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AE68" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>1008</v>
       </c>
       <c r="AF68" s="2">
         <v>40969</v>
@@ -19457,10 +19806,10 @@
         <v>338</v>
       </c>
       <c r="EU68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV68" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV68" t="s">
-        <v>1030</v>
       </c>
       <c r="EW68" t="s">
         <v>151</v>
@@ -19529,10 +19878,10 @@
         <v>48.58</v>
       </c>
       <c r="V69" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W69" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y69" t="s">
         <v>359</v>
@@ -19544,16 +19893,16 @@
         <v>154</v>
       </c>
       <c r="AB69" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC69" t="s">
         <v>1005</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AD69" t="s">
         <v>1006</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AE69" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>1008</v>
       </c>
       <c r="AF69" s="2">
         <v>40969</v>
@@ -19820,10 +20169,10 @@
         <v>338</v>
       </c>
       <c r="EU69" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV69" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV69" t="s">
-        <v>1030</v>
       </c>
       <c r="EW69" t="s">
         <v>151</v>
@@ -19894,10 +20243,10 @@
         <v>48.2</v>
       </c>
       <c r="V70" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W70" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y70" t="s">
         <v>359</v>
@@ -19909,16 +20258,16 @@
         <v>154</v>
       </c>
       <c r="AB70" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC70" t="s">
         <v>1005</v>
       </c>
-      <c r="AC70" t="s">
+      <c r="AD70" t="s">
         <v>1006</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AE70" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>1008</v>
       </c>
       <c r="AF70" s="2">
         <v>34807</v>
@@ -20245,10 +20594,10 @@
         <v>338</v>
       </c>
       <c r="EU70" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV70" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV70" t="s">
-        <v>1030</v>
       </c>
       <c r="EW70" t="s">
         <v>151</v>
@@ -20313,10 +20662,10 @@
         <v>49.5</v>
       </c>
       <c r="V71" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W71" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y71" t="s">
         <v>359</v>
@@ -20328,16 +20677,16 @@
         <v>154</v>
       </c>
       <c r="AB71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC71" t="s">
         <v>1005</v>
       </c>
-      <c r="AC71" t="s">
+      <c r="AD71" t="s">
         <v>1006</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AE71" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>1008</v>
       </c>
       <c r="AF71" s="2">
         <v>33013</v>
@@ -20484,10 +20833,10 @@
         <v>338</v>
       </c>
       <c r="EU71" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV71" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV71" t="s">
-        <v>1030</v>
       </c>
       <c r="EW71" t="s">
         <v>151</v>
@@ -20552,10 +20901,10 @@
         <v>49.5</v>
       </c>
       <c r="V72" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y72" t="s">
         <v>359</v>
@@ -20567,16 +20916,16 @@
         <v>154</v>
       </c>
       <c r="AB72" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC72" t="s">
         <v>1005</v>
       </c>
-      <c r="AC72" t="s">
+      <c r="AD72" t="s">
         <v>1006</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AE72" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>1008</v>
       </c>
       <c r="AF72" s="2">
         <v>32300</v>
@@ -20723,10 +21072,10 @@
         <v>338</v>
       </c>
       <c r="EU72" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV72" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV72" t="s">
-        <v>1030</v>
       </c>
       <c r="EW72" t="s">
         <v>151</v>
@@ -20797,10 +21146,10 @@
         <v>49.5</v>
       </c>
       <c r="V73" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W73" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Y73" t="s">
         <v>359</v>
@@ -20812,16 +21161,16 @@
         <v>154</v>
       </c>
       <c r="AB73" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC73" t="s">
         <v>1005</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AD73" t="s">
         <v>1006</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>1008</v>
       </c>
       <c r="AF73" s="2">
         <v>43271</v>
@@ -21119,10 +21468,10 @@
         <v>338</v>
       </c>
       <c r="EU73" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV73" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV73" t="s">
-        <v>1030</v>
       </c>
       <c r="EW73" t="s">
         <v>151</v>
@@ -21184,10 +21533,10 @@
         <v>46.5</v>
       </c>
       <c r="V74" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W74" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Y74" t="s">
         <v>758</v>
@@ -21199,16 +21548,16 @@
         <v>154</v>
       </c>
       <c r="AB74" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC74" t="s">
         <v>1005</v>
       </c>
-      <c r="AC74" t="s">
+      <c r="AD74" t="s">
         <v>1006</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AE74" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>1008</v>
       </c>
       <c r="AF74" s="2">
         <v>42263</v>
@@ -21289,10 +21638,10 @@
         <v>180</v>
       </c>
       <c r="EU74" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV74" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV74" t="s">
-        <v>1030</v>
       </c>
       <c r="EW74" t="s">
         <v>151</v>
@@ -21348,10 +21697,10 @@
         <v>46.5</v>
       </c>
       <c r="V75" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W75" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y75" s="5" t="s">
         <v>770</v>
@@ -21363,16 +21712,16 @@
         <v>154</v>
       </c>
       <c r="AB75" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC75" t="s">
         <v>1005</v>
       </c>
-      <c r="AC75" t="s">
+      <c r="AD75" t="s">
         <v>1006</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>1008</v>
       </c>
       <c r="AF75" s="2">
         <v>41670</v>
@@ -21453,10 +21802,10 @@
         <v>180</v>
       </c>
       <c r="EU75" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV75" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV75" t="s">
-        <v>1030</v>
       </c>
       <c r="EW75" t="s">
         <v>151</v>
@@ -21512,10 +21861,10 @@
         <v>46.5</v>
       </c>
       <c r="V76" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W76" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y76" s="5" t="s">
         <v>780</v>
@@ -21527,16 +21876,16 @@
         <v>154</v>
       </c>
       <c r="AB76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC76" t="s">
         <v>1005</v>
       </c>
-      <c r="AC76" t="s">
+      <c r="AD76" t="s">
         <v>1006</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>1008</v>
       </c>
       <c r="AF76" s="2">
         <v>41913</v>
@@ -21617,10 +21966,10 @@
         <v>180</v>
       </c>
       <c r="EU76" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV76" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV76" t="s">
-        <v>1030</v>
       </c>
       <c r="EW76" t="s">
         <v>151</v>
@@ -21676,10 +22025,10 @@
         <v>46.5</v>
       </c>
       <c r="V77" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W77" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y77" s="5" t="s">
         <v>795</v>
@@ -21691,16 +22040,16 @@
         <v>154</v>
       </c>
       <c r="AB77" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC77" t="s">
         <v>1005</v>
       </c>
-      <c r="AC77" t="s">
+      <c r="AD77" t="s">
         <v>1006</v>
       </c>
-      <c r="AD77" t="s">
+      <c r="AE77" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>1008</v>
       </c>
       <c r="AF77" s="2">
         <v>41690</v>
@@ -21784,10 +22133,10 @@
         <v>804</v>
       </c>
       <c r="EU77" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV77" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV77" t="s">
-        <v>1030</v>
       </c>
       <c r="EW77" t="s">
         <v>151</v>
@@ -21843,10 +22192,10 @@
         <v>46.5</v>
       </c>
       <c r="V78" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W78" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y78" s="5" t="s">
         <v>806</v>
@@ -21858,16 +22207,16 @@
         <v>154</v>
       </c>
       <c r="AB78" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC78" t="s">
         <v>1005</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AD78" t="s">
         <v>1006</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>1008</v>
       </c>
       <c r="AF78" s="2">
         <v>41729</v>
@@ -21945,10 +22294,10 @@
         <v>811</v>
       </c>
       <c r="EU78" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV78" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV78" t="s">
-        <v>1030</v>
       </c>
       <c r="EW78" t="s">
         <v>151</v>
@@ -22004,10 +22353,10 @@
         <v>46.5</v>
       </c>
       <c r="V79" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W79" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y79" s="5" t="s">
         <v>815</v>
@@ -22019,16 +22368,16 @@
         <v>154</v>
       </c>
       <c r="AB79" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC79" t="s">
         <v>1005</v>
       </c>
-      <c r="AC79" t="s">
+      <c r="AD79" t="s">
         <v>1006</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AE79" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>1008</v>
       </c>
       <c r="AF79" s="2">
         <v>41275</v>
@@ -22109,10 +22458,10 @@
         <v>180</v>
       </c>
       <c r="EU79" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV79" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV79" t="s">
-        <v>1030</v>
       </c>
       <c r="EW79" t="s">
         <v>151</v>
@@ -22168,10 +22517,10 @@
         <v>46.5</v>
       </c>
       <c r="V80" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W80" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y80" s="5" t="s">
         <v>822</v>
@@ -22183,16 +22532,16 @@
         <v>154</v>
       </c>
       <c r="AB80" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC80" t="s">
         <v>1005</v>
       </c>
-      <c r="AC80" t="s">
+      <c r="AD80" t="s">
         <v>1006</v>
       </c>
-      <c r="AD80" t="s">
+      <c r="AE80" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>1008</v>
       </c>
       <c r="AF80" s="2">
         <v>33604</v>
@@ -22273,10 +22622,10 @@
         <v>180</v>
       </c>
       <c r="EU80" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV80" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV80" t="s">
-        <v>1030</v>
       </c>
       <c r="EW80" t="s">
         <v>151</v>
@@ -22332,10 +22681,10 @@
         <v>46.5</v>
       </c>
       <c r="V81" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W81" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y81" s="5" t="s">
         <v>827</v>
@@ -22347,16 +22696,16 @@
         <v>154</v>
       </c>
       <c r="AB81" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC81" t="s">
         <v>1005</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AD81" t="s">
         <v>1006</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>1008</v>
       </c>
       <c r="AF81" s="2">
         <v>43344</v>
@@ -22437,10 +22786,10 @@
         <v>180</v>
       </c>
       <c r="EU81" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV81" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV81" t="s">
-        <v>1030</v>
       </c>
       <c r="EW81" t="s">
         <v>151</v>
@@ -22496,10 +22845,10 @@
         <v>46.5</v>
       </c>
       <c r="V82" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W82" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y82" s="5" t="s">
         <v>834</v>
@@ -22511,16 +22860,16 @@
         <v>154</v>
       </c>
       <c r="AB82" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC82" t="s">
         <v>1005</v>
       </c>
-      <c r="AC82" t="s">
+      <c r="AD82" t="s">
         <v>1006</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AE82" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>1008</v>
       </c>
       <c r="AF82" s="2">
         <v>43344</v>
@@ -22601,10 +22950,10 @@
         <v>180</v>
       </c>
       <c r="EU82" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV82" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV82" t="s">
-        <v>1030</v>
       </c>
       <c r="EW82" t="s">
         <v>151</v>
@@ -22660,10 +23009,10 @@
         <v>51.3</v>
       </c>
       <c r="V83" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W83" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Y83" s="5" t="s">
         <v>839</v>
@@ -22675,16 +23024,16 @@
         <v>154</v>
       </c>
       <c r="AB83" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC83" t="s">
         <v>1005</v>
       </c>
-      <c r="AC83" t="s">
+      <c r="AD83" t="s">
         <v>1006</v>
       </c>
-      <c r="AD83" t="s">
+      <c r="AE83" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>1008</v>
       </c>
       <c r="AF83" s="2">
         <v>39814</v>
@@ -22765,10 +23114,10 @@
         <v>180</v>
       </c>
       <c r="EU83" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV83" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV83" t="s">
-        <v>1030</v>
       </c>
       <c r="EW83" t="s">
         <v>151</v>
@@ -22824,10 +23173,10 @@
         <v>51.3</v>
       </c>
       <c r="V84" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W84" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y84" s="5" t="s">
         <v>846</v>
@@ -22839,16 +23188,16 @@
         <v>154</v>
       </c>
       <c r="AB84" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC84" t="s">
         <v>1005</v>
       </c>
-      <c r="AC84" t="s">
+      <c r="AD84" t="s">
         <v>1006</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>1008</v>
       </c>
       <c r="AF84" s="2">
         <v>43466</v>
@@ -22923,10 +23272,10 @@
         <v>180</v>
       </c>
       <c r="EU84" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV84" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV84" t="s">
-        <v>1030</v>
       </c>
       <c r="EW84" t="s">
         <v>151</v>
@@ -22982,10 +23331,10 @@
         <v>51.3</v>
       </c>
       <c r="V85" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W85" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Y85" s="5" t="s">
         <v>846</v>
@@ -22997,16 +23346,16 @@
         <v>154</v>
       </c>
       <c r="AB85" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC85" t="s">
         <v>1005</v>
       </c>
-      <c r="AC85" t="s">
+      <c r="AD85" t="s">
         <v>1006</v>
       </c>
-      <c r="AD85" t="s">
+      <c r="AE85" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>1008</v>
       </c>
       <c r="AF85" s="2">
         <v>43466</v>
@@ -23084,10 +23433,10 @@
         <v>854</v>
       </c>
       <c r="EU85" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV85" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV85" t="s">
-        <v>1030</v>
       </c>
       <c r="EW85" t="s">
         <v>151</v>
@@ -23143,10 +23492,10 @@
         <v>51.3</v>
       </c>
       <c r="V86" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W86" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Y86" s="5" t="s">
         <v>846</v>
@@ -23158,16 +23507,16 @@
         <v>154</v>
       </c>
       <c r="AB86" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC86" t="s">
         <v>1005</v>
       </c>
-      <c r="AC86" t="s">
+      <c r="AD86" t="s">
         <v>1006</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>1008</v>
       </c>
       <c r="AF86" s="2">
         <v>43466</v>
@@ -23245,10 +23594,10 @@
         <v>854</v>
       </c>
       <c r="EU86" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV86" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV86" t="s">
-        <v>1030</v>
       </c>
       <c r="EW86" t="s">
         <v>151</v>
@@ -23304,10 +23653,10 @@
         <v>46.5</v>
       </c>
       <c r="V87" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W87" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y87" s="5" t="s">
         <v>859</v>
@@ -23319,16 +23668,16 @@
         <v>154</v>
       </c>
       <c r="AB87" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC87" t="s">
         <v>1005</v>
       </c>
-      <c r="AC87" t="s">
+      <c r="AD87" t="s">
         <v>1006</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AE87" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>1008</v>
       </c>
       <c r="AF87" s="2">
         <v>43466</v>
@@ -23412,10 +23761,10 @@
         <v>865</v>
       </c>
       <c r="EU87" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV87" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV87" t="s">
-        <v>1030</v>
       </c>
       <c r="EW87" t="s">
         <v>151</v>
@@ -23471,10 +23820,10 @@
         <v>46.5</v>
       </c>
       <c r="V88" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W88" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Y88" s="5" t="s">
         <v>867</v>
@@ -23486,16 +23835,16 @@
         <v>154</v>
       </c>
       <c r="AB88" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC88" t="s">
         <v>1005</v>
       </c>
-      <c r="AC88" t="s">
+      <c r="AD88" t="s">
         <v>1006</v>
       </c>
-      <c r="AD88" t="s">
+      <c r="AE88" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>1008</v>
       </c>
       <c r="AF88" s="2">
         <v>43466</v>
@@ -23570,10 +23919,10 @@
         <v>180</v>
       </c>
       <c r="EU88" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV88" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV88" t="s">
-        <v>1030</v>
       </c>
       <c r="EW88" t="s">
         <v>151</v>
@@ -23629,10 +23978,10 @@
         <v>46.5</v>
       </c>
       <c r="V89" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W89" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Y89" s="5" t="s">
         <v>867</v>
@@ -23644,16 +23993,16 @@
         <v>154</v>
       </c>
       <c r="AB89" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC89" t="s">
         <v>1005</v>
       </c>
-      <c r="AC89" t="s">
+      <c r="AD89" t="s">
         <v>1006</v>
       </c>
-      <c r="AD89" t="s">
+      <c r="AE89" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>1008</v>
       </c>
       <c r="AF89" s="2">
         <v>43466</v>
@@ -23728,10 +24077,10 @@
         <v>180</v>
       </c>
       <c r="EU89" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV89" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV89" t="s">
-        <v>1030</v>
       </c>
       <c r="EW89" t="s">
         <v>151</v>
@@ -23787,10 +24136,10 @@
         <v>46.5</v>
       </c>
       <c r="V90" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W90" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y90" s="5" t="s">
         <v>879</v>
@@ -23802,16 +24151,16 @@
         <v>154</v>
       </c>
       <c r="AB90" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC90" t="s">
         <v>1005</v>
       </c>
-      <c r="AC90" t="s">
+      <c r="AD90" t="s">
         <v>1006</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AE90" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>1008</v>
       </c>
       <c r="AF90" s="2">
         <v>41974</v>
@@ -23898,10 +24247,10 @@
         <v>884</v>
       </c>
       <c r="EU90" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV90" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV90" t="s">
-        <v>1030</v>
       </c>
       <c r="EW90" t="s">
         <v>151</v>
@@ -23960,10 +24309,10 @@
         <v>46.5</v>
       </c>
       <c r="V91" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W91" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y91" s="5" t="s">
         <v>890</v>
@@ -23975,16 +24324,16 @@
         <v>154</v>
       </c>
       <c r="AB91" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC91" t="s">
         <v>1005</v>
       </c>
-      <c r="AC91" t="s">
+      <c r="AD91" t="s">
         <v>1006</v>
       </c>
-      <c r="AD91" t="s">
+      <c r="AE91" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>1008</v>
       </c>
       <c r="AF91" s="2">
         <v>39083</v>
@@ -24077,10 +24426,10 @@
         <v>895</v>
       </c>
       <c r="EU91" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV91" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV91" t="s">
-        <v>1030</v>
       </c>
       <c r="EW91" t="s">
         <v>151</v>
@@ -24139,10 +24488,10 @@
         <v>46.5</v>
       </c>
       <c r="V92" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W92" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y92" s="5" t="s">
         <v>897</v>
@@ -24154,16 +24503,16 @@
         <v>154</v>
       </c>
       <c r="AB92" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC92" t="s">
         <v>1005</v>
       </c>
-      <c r="AC92" t="s">
+      <c r="AD92" t="s">
         <v>1006</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AE92" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>1008</v>
       </c>
       <c r="AF92" s="2">
         <v>34700</v>
@@ -24256,10 +24605,10 @@
         <v>901</v>
       </c>
       <c r="EU92" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV92" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV92" t="s">
-        <v>1030</v>
       </c>
       <c r="EW92" t="s">
         <v>151</v>
@@ -24318,10 +24667,10 @@
         <v>46.5</v>
       </c>
       <c r="V93" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W93" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y93" s="5" t="s">
         <v>897</v>
@@ -24333,16 +24682,16 @@
         <v>154</v>
       </c>
       <c r="AB93" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC93" t="s">
         <v>1005</v>
       </c>
-      <c r="AC93" t="s">
+      <c r="AD93" t="s">
         <v>1006</v>
       </c>
-      <c r="AD93" t="s">
+      <c r="AE93" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>1008</v>
       </c>
       <c r="AF93" s="2">
         <v>34700</v>
@@ -24435,10 +24784,10 @@
         <v>901</v>
       </c>
       <c r="EU93" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV93" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV93" t="s">
-        <v>1030</v>
       </c>
       <c r="EW93" t="s">
         <v>151</v>
@@ -24497,10 +24846,10 @@
         <v>46.5</v>
       </c>
       <c r="V94" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W94" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y94" s="5" t="s">
         <v>906</v>
@@ -24512,16 +24861,16 @@
         <v>154</v>
       </c>
       <c r="AB94" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC94" t="s">
         <v>1005</v>
       </c>
-      <c r="AC94" t="s">
+      <c r="AD94" t="s">
         <v>1006</v>
       </c>
-      <c r="AD94" t="s">
+      <c r="AE94" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>1008</v>
       </c>
       <c r="AF94" s="2">
         <v>43647</v>
@@ -24614,10 +24963,10 @@
         <v>910</v>
       </c>
       <c r="EU94" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV94" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV94" t="s">
-        <v>1030</v>
       </c>
       <c r="EW94" t="s">
         <v>151</v>
@@ -24676,10 +25025,10 @@
         <v>51.3</v>
       </c>
       <c r="V95" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W95" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y95" s="5" t="s">
         <v>912</v>
@@ -24691,16 +25040,16 @@
         <v>154</v>
       </c>
       <c r="AB95" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC95" t="s">
         <v>1005</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="AD95" t="s">
         <v>1006</v>
       </c>
-      <c r="AD95" t="s">
+      <c r="AE95" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>1008</v>
       </c>
       <c r="AF95" s="2">
         <v>41640</v>
@@ -24790,10 +25139,10 @@
         <v>894</v>
       </c>
       <c r="EU95" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV95" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV95" t="s">
-        <v>1030</v>
       </c>
       <c r="EW95" t="s">
         <v>151</v>
@@ -24852,10 +25201,10 @@
         <v>51.3</v>
       </c>
       <c r="V96" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W96" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y96" s="5" t="s">
         <v>912</v>
@@ -24867,16 +25216,16 @@
         <v>154</v>
       </c>
       <c r="AB96" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC96" t="s">
         <v>1005</v>
       </c>
-      <c r="AC96" t="s">
+      <c r="AD96" t="s">
         <v>1006</v>
       </c>
-      <c r="AD96" t="s">
+      <c r="AE96" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>1008</v>
       </c>
       <c r="AF96" s="2">
         <v>41640</v>
@@ -24966,10 +25315,10 @@
         <v>894</v>
       </c>
       <c r="EU96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV96" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV96" t="s">
-        <v>1030</v>
       </c>
       <c r="EW96" t="s">
         <v>151</v>
@@ -25028,10 +25377,10 @@
         <v>46.5</v>
       </c>
       <c r="V97" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W97" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y97" s="5" t="s">
         <v>924</v>
@@ -25043,16 +25392,16 @@
         <v>154</v>
       </c>
       <c r="AB97" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC97" t="s">
         <v>1005</v>
       </c>
-      <c r="AC97" t="s">
+      <c r="AD97" t="s">
         <v>1006</v>
       </c>
-      <c r="AD97" t="s">
+      <c r="AE97" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>1008</v>
       </c>
       <c r="AF97" s="2">
         <v>41640</v>
@@ -25142,10 +25491,10 @@
         <v>894</v>
       </c>
       <c r="EU97" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV97" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV97" t="s">
-        <v>1030</v>
       </c>
       <c r="EW97" t="s">
         <v>151</v>
@@ -25204,10 +25553,10 @@
         <v>46.5</v>
       </c>
       <c r="V98" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W98" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y98" s="5" t="s">
         <v>929</v>
@@ -25219,16 +25568,16 @@
         <v>154</v>
       </c>
       <c r="AB98" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC98" t="s">
         <v>1005</v>
       </c>
-      <c r="AC98" t="s">
+      <c r="AD98" t="s">
         <v>1006</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AE98" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>1008</v>
       </c>
       <c r="AF98" s="2">
         <v>41640</v>
@@ -25321,10 +25670,10 @@
         <v>933</v>
       </c>
       <c r="EU98" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV98" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV98" t="s">
-        <v>1030</v>
       </c>
       <c r="EW98" t="s">
         <v>151</v>
@@ -25386,7 +25735,7 @@
         <v>929</v>
       </c>
       <c r="W99" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y99" s="5" t="s">
         <v>929</v>
@@ -25398,16 +25747,16 @@
         <v>154</v>
       </c>
       <c r="AB99" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC99" t="s">
         <v>1005</v>
       </c>
-      <c r="AC99" t="s">
+      <c r="AD99" t="s">
         <v>1006</v>
       </c>
-      <c r="AD99" t="s">
+      <c r="AE99" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>1008</v>
       </c>
       <c r="AF99" s="2">
         <v>41640</v>
@@ -25500,10 +25849,10 @@
         <v>937</v>
       </c>
       <c r="EU99" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV99" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV99" t="s">
-        <v>1030</v>
       </c>
       <c r="EW99" t="s">
         <v>151</v>
@@ -25565,7 +25914,7 @@
         <v>929</v>
       </c>
       <c r="W100" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y100" s="5" t="s">
         <v>939</v>
@@ -25577,16 +25926,16 @@
         <v>154</v>
       </c>
       <c r="AB100" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC100" t="s">
         <v>1005</v>
       </c>
-      <c r="AC100" t="s">
+      <c r="AD100" t="s">
         <v>1006</v>
       </c>
-      <c r="AD100" t="s">
+      <c r="AE100" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>1008</v>
       </c>
       <c r="AF100" s="2">
         <v>42005</v>
@@ -25682,10 +26031,10 @@
         <v>946</v>
       </c>
       <c r="EU100" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV100" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV100" t="s">
-        <v>1030</v>
       </c>
       <c r="EW100" t="s">
         <v>151</v>
@@ -25747,7 +26096,7 @@
         <v>929</v>
       </c>
       <c r="W101" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y101" s="5" t="s">
         <v>948</v>
@@ -25759,16 +26108,16 @@
         <v>154</v>
       </c>
       <c r="AB101" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC101" t="s">
         <v>1005</v>
       </c>
-      <c r="AC101" t="s">
+      <c r="AD101" t="s">
         <v>1006</v>
       </c>
-      <c r="AD101" t="s">
+      <c r="AE101" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>1008</v>
       </c>
       <c r="AF101" s="2">
         <v>42461</v>
@@ -25864,10 +26213,10 @@
         <v>946</v>
       </c>
       <c r="EU101" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV101" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV101" t="s">
-        <v>1030</v>
       </c>
       <c r="EW101" t="s">
         <v>151</v>
@@ -25929,7 +26278,7 @@
         <v>929</v>
       </c>
       <c r="W102" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y102" s="5" t="s">
         <v>953</v>
@@ -25941,16 +26290,16 @@
         <v>154</v>
       </c>
       <c r="AB102" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC102" t="s">
         <v>1005</v>
       </c>
-      <c r="AC102" t="s">
+      <c r="AD102" t="s">
         <v>1006</v>
       </c>
-      <c r="AD102" t="s">
+      <c r="AE102" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>1008</v>
       </c>
       <c r="AF102" s="2">
         <v>43647</v>
@@ -26028,10 +26377,10 @@
         <v>956</v>
       </c>
       <c r="EU102" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV102" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV102" t="s">
-        <v>1030</v>
       </c>
       <c r="EW102" t="s">
         <v>151</v>
@@ -26093,7 +26442,7 @@
         <v>929</v>
       </c>
       <c r="W103" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y103" s="5" t="s">
         <v>958</v>
@@ -26105,16 +26454,16 @@
         <v>154</v>
       </c>
       <c r="AB103" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC103" t="s">
         <v>1005</v>
       </c>
-      <c r="AC103" t="s">
+      <c r="AD103" t="s">
         <v>1006</v>
       </c>
-      <c r="AD103" t="s">
+      <c r="AE103" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>1008</v>
       </c>
       <c r="AF103" s="2">
         <v>37256</v>
@@ -26195,10 +26544,10 @@
         <v>963</v>
       </c>
       <c r="EU103" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV103" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV103" t="s">
-        <v>1030</v>
       </c>
       <c r="EW103" t="s">
         <v>151</v>
@@ -26260,7 +26609,7 @@
         <v>929</v>
       </c>
       <c r="W104" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y104" s="5" t="s">
         <v>965</v>
@@ -26272,16 +26621,16 @@
         <v>154</v>
       </c>
       <c r="AB104" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC104" t="s">
         <v>1005</v>
       </c>
-      <c r="AC104" t="s">
+      <c r="AD104" t="s">
         <v>1006</v>
       </c>
-      <c r="AD104" t="s">
+      <c r="AE104" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>1008</v>
       </c>
       <c r="AF104" s="2">
         <v>40909</v>
@@ -26362,10 +26711,10 @@
         <v>970</v>
       </c>
       <c r="EU104" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV104" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV104" t="s">
-        <v>1030</v>
       </c>
       <c r="EW104" t="s">
         <v>151</v>
@@ -26427,7 +26776,7 @@
         <v>929</v>
       </c>
       <c r="W105" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y105" s="5" t="s">
         <v>972</v>
@@ -26439,16 +26788,16 @@
         <v>154</v>
       </c>
       <c r="AB105" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC105" t="s">
         <v>1005</v>
       </c>
-      <c r="AC105" t="s">
+      <c r="AD105" t="s">
         <v>1006</v>
       </c>
-      <c r="AD105" t="s">
+      <c r="AE105" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>1008</v>
       </c>
       <c r="AF105" s="2">
         <v>41640</v>
@@ -26526,10 +26875,10 @@
         <v>976</v>
       </c>
       <c r="EU105" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV105" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV105" t="s">
-        <v>1030</v>
       </c>
       <c r="EW105" t="s">
         <v>151</v>
@@ -26591,7 +26940,7 @@
         <v>929</v>
       </c>
       <c r="W106" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y106" s="5" t="s">
         <v>978</v>
@@ -26603,16 +26952,16 @@
         <v>154</v>
       </c>
       <c r="AB106" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC106" t="s">
         <v>1005</v>
       </c>
-      <c r="AC106" t="s">
+      <c r="AD106" t="s">
         <v>1006</v>
       </c>
-      <c r="AD106" t="s">
+      <c r="AE106" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>1008</v>
       </c>
       <c r="AF106" s="2">
         <v>42005</v>
@@ -26705,10 +27054,10 @@
         <v>969</v>
       </c>
       <c r="EU106" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV106" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV106" t="s">
-        <v>1030</v>
       </c>
       <c r="EW106" t="s">
         <v>151</v>
@@ -26770,7 +27119,7 @@
         <v>929</v>
       </c>
       <c r="W107" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y107" s="5" t="s">
         <v>987</v>
@@ -26782,16 +27131,16 @@
         <v>154</v>
       </c>
       <c r="AB107" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC107" t="s">
         <v>1005</v>
       </c>
-      <c r="AC107" t="s">
+      <c r="AD107" t="s">
         <v>1006</v>
       </c>
-      <c r="AD107" t="s">
+      <c r="AE107" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>1008</v>
       </c>
       <c r="AF107" s="2">
         <v>41640</v>
@@ -26872,10 +27221,10 @@
         <v>991</v>
       </c>
       <c r="EU107" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV107" t="s">
         <v>1029</v>
-      </c>
-      <c r="EV107" t="s">
-        <v>1030</v>
       </c>
       <c r="EW107" t="s">
         <v>151</v>
@@ -26937,7 +27286,7 @@
         <v>929</v>
       </c>
       <c r="W108" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Y108" s="5" t="s">
         <v>993</v>
@@ -26949,16 +27298,16 @@
         <v>154</v>
       </c>
       <c r="AB108" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC108" t="s">
         <v>1005</v>
       </c>
-      <c r="AC108" t="s">
+      <c r="AD108" t="s">
         <v>1006</v>
       </c>
-      <c r="AD108" t="s">
+      <c r="AE108" t="s">
         <v>1007</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>1008</v>
       </c>
       <c r="AF108" s="2">
         <v>41974</v>
@@ -27039,12 +27388,3930 @@
         <v>996</v>
       </c>
       <c r="EU108" t="s">
+        <v>1028</v>
+      </c>
+      <c r="EV108" t="s">
         <v>1029</v>
       </c>
-      <c r="EV108" t="s">
+      <c r="EW108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="EW108" t="s">
+      <c r="C109" s="5"/>
+      <c r="D109" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F109" t="s">
+        <v>147</v>
+      </c>
+      <c r="G109" t="s">
+        <v>148</v>
+      </c>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+      <c r="L109" t="s">
+        <v>769</v>
+      </c>
+      <c r="M109" t="s">
+        <v>151</v>
+      </c>
+      <c r="R109">
+        <v>-52</v>
+      </c>
+      <c r="S109">
+        <v>-68</v>
+      </c>
+      <c r="T109">
+        <v>61</v>
+      </c>
+      <c r="U109">
+        <v>46.5</v>
+      </c>
+      <c r="V109" t="s">
+        <v>929</v>
+      </c>
+      <c r="W109" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z109" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF109" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH109" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO109" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS109" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE109" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF109" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG109" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH109" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI109" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ109" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK109" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL109" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM109" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN109" t="s">
+        <v>1042</v>
+      </c>
+      <c r="EU109" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F110" t="s">
+        <v>147</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+      <c r="L110" t="s">
+        <v>769</v>
+      </c>
+      <c r="M110" t="s">
+        <v>151</v>
+      </c>
+      <c r="R110">
+        <v>-52</v>
+      </c>
+      <c r="S110">
+        <v>-68</v>
+      </c>
+      <c r="T110">
+        <v>61</v>
+      </c>
+      <c r="U110">
+        <v>46.5</v>
+      </c>
+      <c r="V110" t="s">
+        <v>929</v>
+      </c>
+      <c r="W110" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y110" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z110" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF110" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG110" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH110" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO110" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS110" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AT110" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE110" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF110" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG110" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH110" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI110" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ110" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK110" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL110" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM110" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN110" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO110" t="s">
+        <v>1045</v>
+      </c>
+      <c r="EP110" t="s">
+        <v>1046</v>
+      </c>
+      <c r="EU110" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV110" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F111" t="s">
+        <v>147</v>
+      </c>
+      <c r="G111" t="s">
+        <v>148</v>
+      </c>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+      <c r="L111" t="s">
+        <v>769</v>
+      </c>
+      <c r="M111" t="s">
+        <v>151</v>
+      </c>
+      <c r="R111">
+        <v>-52</v>
+      </c>
+      <c r="S111">
+        <v>-68</v>
+      </c>
+      <c r="T111">
+        <v>61</v>
+      </c>
+      <c r="U111">
+        <v>46.5</v>
+      </c>
+      <c r="V111" t="s">
+        <v>929</v>
+      </c>
+      <c r="W111" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z111" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF111" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG111" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH111" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO111" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS111" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AT111" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE111" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF111" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG111" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH111" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI111" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ111" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK111" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL111" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM111" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN111" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO111" t="s">
+        <v>1049</v>
+      </c>
+      <c r="EU111" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV111" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+      <c r="L112" t="s">
+        <v>769</v>
+      </c>
+      <c r="M112" t="s">
+        <v>151</v>
+      </c>
+      <c r="R112">
+        <v>-52</v>
+      </c>
+      <c r="S112">
+        <v>-68</v>
+      </c>
+      <c r="T112">
+        <v>61</v>
+      </c>
+      <c r="U112">
+        <v>46.5</v>
+      </c>
+      <c r="V112" t="s">
+        <v>929</v>
+      </c>
+      <c r="W112" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z112" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF112" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG112" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH112" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO112" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS112" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE112" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF112" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG112" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH112" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI112" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ112" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK112" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL112" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM112" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN112" t="s">
+        <v>1052</v>
+      </c>
+      <c r="EO112" t="s">
+        <v>1053</v>
+      </c>
+      <c r="EU112" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV112" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113" t="s">
+        <v>148</v>
+      </c>
+      <c r="J113" t="s">
+        <v>149</v>
+      </c>
+      <c r="L113" t="s">
+        <v>769</v>
+      </c>
+      <c r="M113" t="s">
+        <v>151</v>
+      </c>
+      <c r="R113">
+        <v>-52</v>
+      </c>
+      <c r="S113">
+        <v>-68</v>
+      </c>
+      <c r="T113">
+        <v>61</v>
+      </c>
+      <c r="U113">
+        <v>46.5</v>
+      </c>
+      <c r="V113" t="s">
+        <v>929</v>
+      </c>
+      <c r="W113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y113" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF113" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG113" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH113" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO113" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS113" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AT113" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE113" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF113" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG113" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH113" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ113" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK113" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL113" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM113" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN113" t="s">
+        <v>1056</v>
+      </c>
+      <c r="EU113" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F114" t="s">
+        <v>147</v>
+      </c>
+      <c r="G114" t="s">
+        <v>148</v>
+      </c>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+      <c r="L114" t="s">
+        <v>769</v>
+      </c>
+      <c r="M114" t="s">
+        <v>151</v>
+      </c>
+      <c r="R114">
+        <v>-52</v>
+      </c>
+      <c r="S114">
+        <v>-68</v>
+      </c>
+      <c r="T114">
+        <v>61</v>
+      </c>
+      <c r="U114">
+        <v>46.5</v>
+      </c>
+      <c r="V114" t="s">
+        <v>929</v>
+      </c>
+      <c r="W114" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y114" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z114" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF114" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG114" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH114" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO114" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ114" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR114" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS114" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AT114" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE114" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF114" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG114" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH114" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ114" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK114" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM114" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="EU114" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV114" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F115" t="s">
+        <v>147</v>
+      </c>
+      <c r="G115" t="s">
+        <v>148</v>
+      </c>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+      <c r="L115" t="s">
+        <v>769</v>
+      </c>
+      <c r="M115" t="s">
+        <v>151</v>
+      </c>
+      <c r="R115">
+        <v>-52</v>
+      </c>
+      <c r="S115">
+        <v>-68</v>
+      </c>
+      <c r="T115">
+        <v>61</v>
+      </c>
+      <c r="U115">
+        <v>46.5</v>
+      </c>
+      <c r="V115" t="s">
+        <v>929</v>
+      </c>
+      <c r="W115" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y115" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z115" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF115" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG115" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH115" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO115" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS115" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE115" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF115" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG115" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH115" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI115" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ115" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK115" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL115" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM115" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN115" t="s">
+        <v>1062</v>
+      </c>
+      <c r="EU115" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV115" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F116" t="s">
+        <v>147</v>
+      </c>
+      <c r="G116" t="s">
+        <v>148</v>
+      </c>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+      <c r="L116" t="s">
+        <v>769</v>
+      </c>
+      <c r="M116" t="s">
+        <v>151</v>
+      </c>
+      <c r="R116">
+        <v>-52</v>
+      </c>
+      <c r="S116">
+        <v>-68</v>
+      </c>
+      <c r="T116">
+        <v>61</v>
+      </c>
+      <c r="U116">
+        <v>46.5</v>
+      </c>
+      <c r="V116" t="s">
+        <v>929</v>
+      </c>
+      <c r="W116" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y116" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z116" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF116" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG116" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH116" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO116" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS116" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AT116" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE116" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF116" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG116" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH116" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI116" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ116" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK116" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL116" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM116" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="EU116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV116" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F117" t="s">
+        <v>147</v>
+      </c>
+      <c r="G117" t="s">
+        <v>148</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+      <c r="L117" t="s">
+        <v>769</v>
+      </c>
+      <c r="M117" t="s">
+        <v>151</v>
+      </c>
+      <c r="R117">
+        <v>-52</v>
+      </c>
+      <c r="S117">
+        <v>-68</v>
+      </c>
+      <c r="T117">
+        <v>61</v>
+      </c>
+      <c r="U117">
+        <v>46.5</v>
+      </c>
+      <c r="V117" t="s">
+        <v>929</v>
+      </c>
+      <c r="W117" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y117" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z117" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF117" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG117" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH117" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO117" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS117" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE117" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF117" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG117" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH117" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ117" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK117" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL117" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM117" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN117" t="s">
+        <v>1068</v>
+      </c>
+      <c r="EU117" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F118" t="s">
+        <v>147</v>
+      </c>
+      <c r="G118" t="s">
+        <v>148</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+      <c r="L118" t="s">
+        <v>769</v>
+      </c>
+      <c r="M118" t="s">
+        <v>151</v>
+      </c>
+      <c r="R118">
+        <v>-52</v>
+      </c>
+      <c r="S118">
+        <v>-68</v>
+      </c>
+      <c r="T118">
+        <v>61</v>
+      </c>
+      <c r="U118">
+        <v>46.5</v>
+      </c>
+      <c r="V118" t="s">
+        <v>929</v>
+      </c>
+      <c r="W118" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z118" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF118" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG118" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH118" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS118" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE118" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF118" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG118" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH118" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI118" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ118" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK118" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM118" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN118" t="s">
+        <v>1071</v>
+      </c>
+      <c r="EU118" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV118" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F119" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" t="s">
+        <v>148</v>
+      </c>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+      <c r="L119" t="s">
+        <v>769</v>
+      </c>
+      <c r="M119" t="s">
+        <v>151</v>
+      </c>
+      <c r="R119">
+        <v>-52</v>
+      </c>
+      <c r="S119">
+        <v>-68</v>
+      </c>
+      <c r="T119">
+        <v>61</v>
+      </c>
+      <c r="U119">
+        <v>46.5</v>
+      </c>
+      <c r="V119" t="s">
+        <v>929</v>
+      </c>
+      <c r="W119" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y119" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z119" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF119" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG119" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH119" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO119" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS119" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE119" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF119" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG119" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH119" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI119" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ119" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK119" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL119" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN119" t="s">
+        <v>1074</v>
+      </c>
+      <c r="EU119" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV119" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F120" t="s">
+        <v>147</v>
+      </c>
+      <c r="G120" t="s">
+        <v>148</v>
+      </c>
+      <c r="J120" t="s">
+        <v>149</v>
+      </c>
+      <c r="L120" t="s">
+        <v>769</v>
+      </c>
+      <c r="M120" t="s">
+        <v>151</v>
+      </c>
+      <c r="R120">
+        <v>-52</v>
+      </c>
+      <c r="S120">
+        <v>-68</v>
+      </c>
+      <c r="T120">
+        <v>61</v>
+      </c>
+      <c r="U120">
+        <v>46.5</v>
+      </c>
+      <c r="V120" t="s">
+        <v>929</v>
+      </c>
+      <c r="W120" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z120" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF120" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG120" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH120" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO120" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS120" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE120" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF120" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG120" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH120" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI120" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ120" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK120" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL120" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM120" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN120" t="s">
+        <v>379</v>
+      </c>
+      <c r="EU120" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV120" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F121" t="s">
+        <v>147</v>
+      </c>
+      <c r="G121" t="s">
+        <v>148</v>
+      </c>
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+      <c r="L121" t="s">
+        <v>769</v>
+      </c>
+      <c r="M121" t="s">
+        <v>151</v>
+      </c>
+      <c r="R121">
+        <v>-52</v>
+      </c>
+      <c r="S121">
+        <v>-68</v>
+      </c>
+      <c r="T121">
+        <v>61</v>
+      </c>
+      <c r="U121">
+        <v>46.5</v>
+      </c>
+      <c r="V121" t="s">
+        <v>929</v>
+      </c>
+      <c r="W121" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y121" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z121" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF121" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG121" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH121" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN121" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO121" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AP121" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR121" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS121" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AT121" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE121" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF121" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG121" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH121" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI121" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ121" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK121" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL121" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM121" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN121" t="s">
+        <v>1079</v>
+      </c>
+      <c r="EU121" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV121" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F122" t="s">
+        <v>147</v>
+      </c>
+      <c r="G122" t="s">
+        <v>148</v>
+      </c>
+      <c r="J122" t="s">
+        <v>149</v>
+      </c>
+      <c r="L122" t="s">
+        <v>769</v>
+      </c>
+      <c r="M122" t="s">
+        <v>151</v>
+      </c>
+      <c r="R122">
+        <v>-52</v>
+      </c>
+      <c r="S122">
+        <v>-68</v>
+      </c>
+      <c r="T122">
+        <v>61</v>
+      </c>
+      <c r="U122">
+        <v>46.5</v>
+      </c>
+      <c r="V122" t="s">
+        <v>929</v>
+      </c>
+      <c r="W122" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y122" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF122" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG122" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH122" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN122" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO122" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AP122" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR122" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS122" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AT122" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE122" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF122" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG122" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH122" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI122" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ122" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK122" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL122" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM122" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN122" t="s">
+        <v>1082</v>
+      </c>
+      <c r="EU122" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV122" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F123" t="s">
+        <v>147</v>
+      </c>
+      <c r="G123" t="s">
+        <v>148</v>
+      </c>
+      <c r="J123" t="s">
+        <v>149</v>
+      </c>
+      <c r="L123" t="s">
+        <v>769</v>
+      </c>
+      <c r="M123" t="s">
+        <v>151</v>
+      </c>
+      <c r="R123">
+        <v>-52</v>
+      </c>
+      <c r="S123">
+        <v>-68</v>
+      </c>
+      <c r="T123">
+        <v>61</v>
+      </c>
+      <c r="U123">
+        <v>46.5</v>
+      </c>
+      <c r="V123" t="s">
+        <v>929</v>
+      </c>
+      <c r="W123" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y123" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE123" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF123" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG123" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH123" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN123" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO123" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AP123" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ123" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR123" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS123" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AT123" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE123" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF123" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG123" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH123" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI123" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ123" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK123" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL123" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM123" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN123" t="s">
+        <v>1085</v>
+      </c>
+      <c r="EU123" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV123" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F124" t="s">
+        <v>147</v>
+      </c>
+      <c r="G124" t="s">
+        <v>148</v>
+      </c>
+      <c r="J124" t="s">
+        <v>149</v>
+      </c>
+      <c r="L124" t="s">
+        <v>769</v>
+      </c>
+      <c r="M124" t="s">
+        <v>151</v>
+      </c>
+      <c r="R124">
+        <v>-52</v>
+      </c>
+      <c r="S124">
+        <v>-68</v>
+      </c>
+      <c r="T124">
+        <v>61</v>
+      </c>
+      <c r="U124">
+        <v>46.5</v>
+      </c>
+      <c r="V124" t="s">
+        <v>929</v>
+      </c>
+      <c r="W124" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE124" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF124" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG124" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH124" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN124" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO124" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AP124" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ124" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR124" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS124" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AT124" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE124" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF124" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG124" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH124" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI124" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ124" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK124" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL124" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM124" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN124" t="s">
+        <v>1088</v>
+      </c>
+      <c r="EU124" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV124" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F125" t="s">
+        <v>147</v>
+      </c>
+      <c r="G125" t="s">
+        <v>148</v>
+      </c>
+      <c r="J125" t="s">
+        <v>149</v>
+      </c>
+      <c r="L125" t="s">
+        <v>769</v>
+      </c>
+      <c r="M125" t="s">
+        <v>151</v>
+      </c>
+      <c r="R125">
+        <v>-52</v>
+      </c>
+      <c r="S125">
+        <v>-68</v>
+      </c>
+      <c r="T125">
+        <v>61</v>
+      </c>
+      <c r="U125">
+        <v>46.5</v>
+      </c>
+      <c r="V125" t="s">
+        <v>929</v>
+      </c>
+      <c r="W125" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y125" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z125" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB125" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE125" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF125" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG125" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH125" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO125" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AP125" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ125" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR125" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS125" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AT125" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE125" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF125" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG125" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH125" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI125" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ125" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK125" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL125" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM125" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN125" t="s">
+        <v>1091</v>
+      </c>
+      <c r="EU125" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV125" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F126" t="s">
+        <v>147</v>
+      </c>
+      <c r="G126" t="s">
+        <v>148</v>
+      </c>
+      <c r="J126" t="s">
+        <v>149</v>
+      </c>
+      <c r="L126" t="s">
+        <v>769</v>
+      </c>
+      <c r="M126" t="s">
+        <v>151</v>
+      </c>
+      <c r="R126">
+        <v>-52</v>
+      </c>
+      <c r="S126">
+        <v>-68</v>
+      </c>
+      <c r="T126">
+        <v>61</v>
+      </c>
+      <c r="U126">
+        <v>46.5</v>
+      </c>
+      <c r="V126" t="s">
+        <v>929</v>
+      </c>
+      <c r="W126" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y126" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z126" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB126" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF126" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG126" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH126" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN126" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO126" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AP126" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ126" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR126" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS126" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AT126" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE126" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF126" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG126" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH126" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI126" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ126" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK126" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL126" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM126" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EU126" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV126" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F127" t="s">
+        <v>147</v>
+      </c>
+      <c r="G127" t="s">
+        <v>148</v>
+      </c>
+      <c r="J127" t="s">
+        <v>149</v>
+      </c>
+      <c r="L127" t="s">
+        <v>769</v>
+      </c>
+      <c r="M127" t="s">
+        <v>151</v>
+      </c>
+      <c r="R127">
+        <v>-52</v>
+      </c>
+      <c r="S127">
+        <v>-68</v>
+      </c>
+      <c r="T127">
+        <v>61</v>
+      </c>
+      <c r="U127">
+        <v>46.5</v>
+      </c>
+      <c r="V127" t="s">
+        <v>929</v>
+      </c>
+      <c r="W127" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y127" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z127" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE127" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF127" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG127" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH127" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN127" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO127" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AP127" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ127" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR127" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS127" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AT127" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE127" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF127" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG127" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH127" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI127" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ127" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK127" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL127" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM127" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN127" t="s">
+        <v>183</v>
+      </c>
+      <c r="EU127" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV127" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F128" t="s">
+        <v>147</v>
+      </c>
+      <c r="G128" t="s">
+        <v>148</v>
+      </c>
+      <c r="J128" t="s">
+        <v>149</v>
+      </c>
+      <c r="L128" t="s">
+        <v>769</v>
+      </c>
+      <c r="M128" t="s">
+        <v>151</v>
+      </c>
+      <c r="R128">
+        <v>-52</v>
+      </c>
+      <c r="S128">
+        <v>-68</v>
+      </c>
+      <c r="T128">
+        <v>61</v>
+      </c>
+      <c r="U128">
+        <v>46.5</v>
+      </c>
+      <c r="V128" t="s">
+        <v>929</v>
+      </c>
+      <c r="W128" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y128" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z128" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB128" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE128" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF128" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG128" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH128" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN128" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO128" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ128" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR128" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS128" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AT128" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE128" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF128" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG128" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH128" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI128" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ128" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK128" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL128" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM128" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN128" t="s">
+        <v>1098</v>
+      </c>
+      <c r="EO128" t="s">
+        <v>1099</v>
+      </c>
+      <c r="EU128" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV128" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F129" t="s">
+        <v>147</v>
+      </c>
+      <c r="G129" t="s">
+        <v>148</v>
+      </c>
+      <c r="J129" t="s">
+        <v>149</v>
+      </c>
+      <c r="L129" t="s">
+        <v>769</v>
+      </c>
+      <c r="M129" t="s">
+        <v>151</v>
+      </c>
+      <c r="R129">
+        <v>-52</v>
+      </c>
+      <c r="S129">
+        <v>-68</v>
+      </c>
+      <c r="T129">
+        <v>61</v>
+      </c>
+      <c r="U129">
+        <v>46.5</v>
+      </c>
+      <c r="V129" t="s">
+        <v>929</v>
+      </c>
+      <c r="W129" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y129" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z129" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB129" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF129" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG129" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH129" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN129" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO129" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ129" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR129" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS129" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AT129" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE129" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF129" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG129" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH129" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI129" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ129" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK129" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL129" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM129" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN129" t="s">
+        <v>1102</v>
+      </c>
+      <c r="EO129" t="s">
+        <v>1103</v>
+      </c>
+      <c r="EU129" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV129" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F130" t="s">
+        <v>147</v>
+      </c>
+      <c r="G130" t="s">
+        <v>148</v>
+      </c>
+      <c r="J130" t="s">
+        <v>149</v>
+      </c>
+      <c r="L130" t="s">
+        <v>769</v>
+      </c>
+      <c r="M130" t="s">
+        <v>151</v>
+      </c>
+      <c r="R130">
+        <v>-52</v>
+      </c>
+      <c r="S130">
+        <v>-68</v>
+      </c>
+      <c r="T130">
+        <v>61</v>
+      </c>
+      <c r="U130">
+        <v>46.5</v>
+      </c>
+      <c r="V130" t="s">
+        <v>929</v>
+      </c>
+      <c r="W130" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y130" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z130" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB130" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF130" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG130" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH130" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN130" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO130" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ130" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR130" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS130" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AT130" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE130" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF130" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG130" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH130" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI130" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ130" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK130" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL130" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM130" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN130" t="s">
+        <v>1105</v>
+      </c>
+      <c r="EO130" t="s">
+        <v>1106</v>
+      </c>
+      <c r="EU130" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV130" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F131" t="s">
+        <v>147</v>
+      </c>
+      <c r="G131" t="s">
+        <v>148</v>
+      </c>
+      <c r="J131" t="s">
+        <v>149</v>
+      </c>
+      <c r="L131" t="s">
+        <v>769</v>
+      </c>
+      <c r="M131" t="s">
+        <v>151</v>
+      </c>
+      <c r="R131">
+        <v>-52</v>
+      </c>
+      <c r="S131">
+        <v>-68</v>
+      </c>
+      <c r="T131">
+        <v>61</v>
+      </c>
+      <c r="U131">
+        <v>46.5</v>
+      </c>
+      <c r="V131" t="s">
+        <v>929</v>
+      </c>
+      <c r="W131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y131" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z131" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB131" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF131" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG131" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH131" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN131" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO131" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AP131" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ131" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR131" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS131" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AT131" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE131" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF131" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG131" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH131" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI131" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ131" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK131" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL131" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM131" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN131" t="s">
+        <v>1110</v>
+      </c>
+      <c r="EU131" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV131" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F132" t="s">
+        <v>147</v>
+      </c>
+      <c r="G132" t="s">
+        <v>148</v>
+      </c>
+      <c r="J132" t="s">
+        <v>149</v>
+      </c>
+      <c r="L132" t="s">
+        <v>769</v>
+      </c>
+      <c r="M132" t="s">
+        <v>151</v>
+      </c>
+      <c r="R132">
+        <v>-52</v>
+      </c>
+      <c r="S132">
+        <v>-68</v>
+      </c>
+      <c r="T132">
+        <v>61</v>
+      </c>
+      <c r="U132">
+        <v>46.5</v>
+      </c>
+      <c r="V132" t="s">
+        <v>929</v>
+      </c>
+      <c r="W132" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y132" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z132" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB132" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF132" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG132" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH132" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN132" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO132" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AP132" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ132" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR132" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS132" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AT132" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE132" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF132" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG132" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH132" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI132" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ132" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK132" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL132" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM132" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN132" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EU132" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV132" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F133" t="s">
+        <v>147</v>
+      </c>
+      <c r="G133" t="s">
+        <v>148</v>
+      </c>
+      <c r="J133" t="s">
+        <v>149</v>
+      </c>
+      <c r="L133" t="s">
+        <v>769</v>
+      </c>
+      <c r="M133" t="s">
+        <v>151</v>
+      </c>
+      <c r="R133">
+        <v>-52</v>
+      </c>
+      <c r="S133">
+        <v>-68</v>
+      </c>
+      <c r="T133">
+        <v>61</v>
+      </c>
+      <c r="U133">
+        <v>46.5</v>
+      </c>
+      <c r="V133" t="s">
+        <v>929</v>
+      </c>
+      <c r="W133" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y133" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z133" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF133" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG133" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH133" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN133" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO133" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AP133" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ133" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR133" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS133" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AT133" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE133" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF133" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG133" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH133" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI133" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ133" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK133" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL133" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM133" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN133" t="s">
+        <v>1140</v>
+      </c>
+      <c r="EU133" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV133" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:153" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F134" t="s">
+        <v>147</v>
+      </c>
+      <c r="G134" t="s">
+        <v>148</v>
+      </c>
+      <c r="J134" t="s">
+        <v>149</v>
+      </c>
+      <c r="L134" t="s">
+        <v>769</v>
+      </c>
+      <c r="M134" t="s">
+        <v>151</v>
+      </c>
+      <c r="R134">
+        <v>-52</v>
+      </c>
+      <c r="S134">
+        <v>-68</v>
+      </c>
+      <c r="T134">
+        <v>61</v>
+      </c>
+      <c r="U134">
+        <v>46.5</v>
+      </c>
+      <c r="V134" t="s">
+        <v>929</v>
+      </c>
+      <c r="W134" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y134" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z134" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF134" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AG134" s="2">
+        <v>36526</v>
+      </c>
+      <c r="AH134" s="2">
+        <v>36892</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>769</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN134" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO134" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AP134" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ134" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR134" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS134" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AT134" t="s">
+        <v>775</v>
+      </c>
+      <c r="EE134" t="s">
+        <v>161</v>
+      </c>
+      <c r="EF134" t="s">
+        <v>161</v>
+      </c>
+      <c r="EG134" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH134" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI134" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EJ134" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK134" t="s">
+        <v>166</v>
+      </c>
+      <c r="EL134" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM134" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EN134" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EU134" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EV134" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EW134" t="s">
         <v>151</v>
       </c>
     </row>
@@ -27129,7 +31396,36 @@
     <hyperlink ref="AS75" r:id="rId74"/>
     <hyperlink ref="AS78" r:id="rId75"/>
     <hyperlink ref="AS37" r:id="rId76"/>
+    <hyperlink ref="AS106" r:id="rId77"/>
+    <hyperlink ref="AS107" r:id="rId78"/>
+    <hyperlink ref="AS109" r:id="rId79"/>
+    <hyperlink ref="AS110" r:id="rId80"/>
+    <hyperlink ref="AS111" r:id="rId81"/>
+    <hyperlink ref="AS112" r:id="rId82"/>
+    <hyperlink ref="AS113" r:id="rId83"/>
+    <hyperlink ref="AS114" r:id="rId84"/>
+    <hyperlink ref="AS115" r:id="rId85"/>
+    <hyperlink ref="AS116" r:id="rId86"/>
+    <hyperlink ref="AS117" r:id="rId87"/>
+    <hyperlink ref="AS118" r:id="rId88"/>
+    <hyperlink ref="AS119" r:id="rId89"/>
+    <hyperlink ref="AS120" r:id="rId90"/>
+    <hyperlink ref="AS121" r:id="rId91"/>
+    <hyperlink ref="AS122" r:id="rId92"/>
+    <hyperlink ref="AS123" r:id="rId93"/>
+    <hyperlink ref="AS124" r:id="rId94"/>
+    <hyperlink ref="AS125" r:id="rId95"/>
+    <hyperlink ref="AS126" r:id="rId96"/>
+    <hyperlink ref="AS127" r:id="rId97"/>
+    <hyperlink ref="AS128" r:id="rId98"/>
+    <hyperlink ref="AS129" r:id="rId99"/>
+    <hyperlink ref="AS130" r:id="rId100"/>
+    <hyperlink ref="AS131" r:id="rId101"/>
+    <hyperlink ref="AS132" r:id="rId102"/>
+    <hyperlink ref="AS133" r:id="rId103"/>
+    <hyperlink ref="AS134" r:id="rId104"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId105"/>
 </worksheet>
 </file>
--- a/docs/NL-Datasets-Attributes.xlsx
+++ b/docs/NL-Datasets-Attributes.xlsx
@@ -3955,12 +3955,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ET139"/>
+  <dimension ref="A1:ET140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="AA146" sqref="AA146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30680,6 +30680,7 @@
         <v>145</v>
       </c>
     </row>
+    <row r="140" spans="1:150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:ET139">
     <sortCondition descending="1" ref="F1"/>
